--- a/questionnaire/survey analysis.xlsx
+++ b/questionnaire/survey analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Thesis2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Thesis2021\questionnaire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164EB28E-365B-4382-9FE0-DDBBDAC0319B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E9E9FF-D009-4BAA-BDB0-68CE5EE71BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="705" activeTab="9" xr2:uid="{CF2921A5-C80B-4877-A0CE-2F57B984B9AC}"/>
+    <workbookView xWindow="17415" yWindow="-19650" windowWidth="19200" windowHeight="11505" tabRatio="705" activeTab="8" xr2:uid="{CF2921A5-C80B-4877-A0CE-2F57B984B9AC}"/>
   </bookViews>
   <sheets>
     <sheet name="deliveries" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="404">
   <si>
     <t>A</t>
   </si>
@@ -1073,6 +1073,198 @@
   </si>
   <si>
     <t>tt first</t>
+  </si>
+  <si>
+    <t>3,4,4,4,4,4,4,5,5,5,</t>
+  </si>
+  <si>
+    <t>2,2,2,2,3,3,3,3,4,4,4,4,4,4,4,4,4,4,4,5,</t>
+  </si>
+  <si>
+    <t>2,2,3,3,3,4,4,4,5,</t>
+  </si>
+  <si>
+    <t>2,2,3,3,4,4,4,4,4,4,4,4,4,4,4,5,</t>
+  </si>
+  <si>
+    <t>2,2,2,3,4,4,4,4,4,4,4,5,</t>
+  </si>
+  <si>
+    <t>2,3,3,3,3,4,4,4,4,4,4,4,4,4,4,5,5,5,</t>
+  </si>
+  <si>
+    <t>2,2,2,3,3,3,3,4,5,5,</t>
+  </si>
+  <si>
+    <t>1,2,2,3,3,3,3,3,3,4,4,4,4,4,4,5,5,5,5,5,</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1,2,3,3,3,4,4,5,5</t>
+  </si>
+  <si>
+    <t>2,2,3,3,3,3,3,4,4,4,4,4,5,5,5,5</t>
+  </si>
+  <si>
+    <t>1,2,2,3,3,3,3,3,4,4,5,5</t>
+  </si>
+  <si>
+    <t>2,2,2,3,3,3,3,3,4,4,4,4,4,5,5,5,5,5</t>
+  </si>
+  <si>
+    <t>2,2,2,2,2,3,3,3,3,4,4,5</t>
+  </si>
+  <si>
+    <t>1,3,3,3,3,3,3,4,4,4,4,4,5,5,5,5,5,5</t>
+  </si>
+  <si>
+    <t>1,2,2,2,3,3,3,3,3,3,4,4,4,4,4,5,5,5</t>
+  </si>
+  <si>
+    <t>2,2,3,3,3,3,4,4,5,5,5,5</t>
+  </si>
+  <si>
+    <t>2,2,2,3,3,3,3,3,3,4,4,5,5,5</t>
+  </si>
+  <si>
+    <t>1,2,2,3,3,3,3,4,4,4,4,4,5,5,5,5</t>
+  </si>
+  <si>
+    <t>2,3,3,3,4,4,5,5</t>
+  </si>
+  <si>
+    <t>1,3,3,4,4,4,4,5,5,5</t>
+  </si>
+  <si>
+    <t>1,3,4,5,5,5</t>
+  </si>
+  <si>
+    <t>2,3,3,4,4,4,5,5</t>
+  </si>
+  <si>
+    <t>1,3,4,5,5</t>
+  </si>
+  <si>
+    <t>2,3,3,3,3,4,4,4,4,4,5,5,5</t>
+  </si>
+  <si>
+    <t>2,3,3,3,3,4,4,4,5</t>
+  </si>
+  <si>
+    <t>1,3,4,4,4,5,5,5,5</t>
+  </si>
+  <si>
+    <t>2,3,3,3,3,3,4,4,4,4,4,5,5,5</t>
+  </si>
+  <si>
+    <t>1,4,5,5</t>
+  </si>
+  <si>
+    <t>2,2,3,3,4,4,4,4,4,5</t>
+  </si>
+  <si>
+    <t>1,1,1,1,2,2,2,2,2,3,4,4,4,4,4,4,4,4,4,4</t>
+  </si>
+  <si>
+    <t>1,1,2,2,2,4,4,4,4</t>
+  </si>
+  <si>
+    <t>1,1,2,2,2,3,3,4,4,4,4,4,4,4,4,4</t>
+  </si>
+  <si>
+    <t>1,2,2,2,3,3,4,4,4,4,4,4</t>
+  </si>
+  <si>
+    <t>1,1,1,2,2,2,2,3,4,4,4,4,4,4,4,4,4,5</t>
+  </si>
+  <si>
+    <t>1,1,1,1,2,2,2,2,2,2,3,3,4,4,4,4,4,4</t>
+  </si>
+  <si>
+    <t>2,3,4,4,4,4,4,4,4,4,4,5</t>
+  </si>
+  <si>
+    <t>1,1,1,1,2,2,2,2,2,3,4,4,4,4,4,4,4,5</t>
+  </si>
+  <si>
+    <t>2,2,3,3,4,4,4,4,4,4,4,4</t>
+  </si>
+  <si>
+    <t>1,2,2,3,3,3,3,4,4,4</t>
+  </si>
+  <si>
+    <t>1,2,2,2,2,2,2,2,2,3,3,3,3,3,4,4,4,4,5</t>
+  </si>
+  <si>
+    <t>2,2,2,2,3,3,3,4,5</t>
+  </si>
+  <si>
+    <t>1,1,2,2,2,2,3,3,3,3,4,4,4,4,4</t>
+  </si>
+  <si>
+    <t>2,2,2,2,2,2,3,3,4,4,4</t>
+  </si>
+  <si>
+    <t>1,1,2,2,2,2,3,3,3,3,3,3,3,4,4,4,4,5</t>
+  </si>
+  <si>
+    <t>1,1,2,2,2,2,2,2,2,3,3,3,4,4,4,4,4,5</t>
+  </si>
+  <si>
+    <t>2,2,2,3,3,3,3,3,3,4,4</t>
+  </si>
+  <si>
+    <t>1,2,2,2,2,3,3,4,4,4,5</t>
+  </si>
+  <si>
+    <t>1,2,2,2,2,2,2,3,3,3,3,3,3,3,4,4,4,4</t>
+  </si>
+  <si>
+    <t>1,2,2,2,2,2,4,4,4,5</t>
+  </si>
+  <si>
+    <t>1,2,2,2,2,4,4,4,4,4,4,4,4,4,4,4,5,5,5,5</t>
+  </si>
+  <si>
+    <t>2,2,4,4,4,4,4,4,5</t>
+  </si>
+  <si>
+    <t>1,1,2,2,2,2,2,4,4,4,4,4,5,5,5,5</t>
+  </si>
+  <si>
+    <t>1,2,2,4,4,4,4,4,4,4,5,5</t>
+  </si>
+  <si>
+    <t>1,2,2,2,2,2,2,2,4,4,4,4,4,4,4,5,5,5</t>
+  </si>
+  <si>
+    <t>2,2,2,2,2,4,4,4,4,4,4,4,5,5</t>
+  </si>
+  <si>
+    <t>1,1,2,2,2,2,4,4,4,4,4,4,4,5,5,5</t>
+  </si>
+  <si>
+    <t>1,2,3,4,4,4,4,4,4,4</t>
+  </si>
+  <si>
+    <t>1,1,2,2,2,2,2,2,3,3,3,4,4,4,4,4,4,4,5,5</t>
+  </si>
+  <si>
+    <t>2,3,3,3,4,4,4,4,5</t>
+  </si>
+  <si>
+    <t>1,1,1,2,2,2,2,4,4,4,4,4,4,4,4,5</t>
+  </si>
+  <si>
+    <t>1,1,1,2,2,2,2,2,3,3,4,4,4,4,4,4,5,5</t>
+  </si>
+  <si>
+    <t>1,2,2,2,3,3,3,4,4,4,4,4,4,5</t>
+  </si>
+  <si>
+    <t>1,1,2,2,2,2,3,4,4,4,4,4,4,4,4,5</t>
   </si>
 </sst>
 </file>
@@ -5600,301 +5792,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9EB97D2-B220-420F-9482-6B2082BF4693}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I9:J25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="44">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="1"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="5"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="31"/>
-    <field x="27"/>
-  </rowFields>
-  <rowItems count="16">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="5" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Respondent ID" fld="0" subtotal="count" baseField="9" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{349D25D2-486B-45F2-8B43-2C24FC525FFD}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="E11:F16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="29">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="22"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="5" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Respondent ID" fld="0" subtotal="count" baseField="20" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5624DE0F-B479-4E43-A407-7F4A6D86F76C}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="44">
@@ -6119,6 +6016,301 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Count of Respondent ID" fld="0" subtotal="count" baseField="6" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9EB97D2-B220-420F-9482-6B2082BF4693}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I9:J25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="44">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="31"/>
+    <field x="27"/>
+  </rowFields>
+  <rowItems count="16">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="5" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Respondent ID" fld="0" subtotal="count" baseField="9" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{349D25D2-486B-45F2-8B43-2C24FC525FFD}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E11:F16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="29">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="22"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="5" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Respondent ID" fld="0" subtotal="count" baseField="20" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -6817,10 +7009,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7F3328-AE59-4804-B9D0-19F41318D13C}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" activeCellId="1" sqref="K15:M15 J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6829,11 +7021,12 @@
     <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="8.7265625" customWidth="1"/>
-    <col min="9" max="9" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="7"/>
       <c r="B1" s="7" t="s">
         <v>315</v>
@@ -6856,10 +7049,11 @@
       <c r="H1" s="1">
         <v>5</v>
       </c>
-      <c r="I1" s="7"/>
+      <c r="I1" s="1"/>
       <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>311</v>
       </c>
@@ -6885,28 +7079,32 @@
       <c r="H2" s="7">
         <v>5</v>
       </c>
-      <c r="I2" s="7" t="str">
+      <c r="I2" s="7">
+        <f>(G2+H2)/(D2+E2)</f>
+        <v>1.7272727272727273</v>
+      </c>
+      <c r="J2" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A2," ","_") &amp; "' : [" &amp; (F2*-1) &amp; "," &amp; (E2*-1) &amp; "," &amp;(D2*-1)&amp; "," &amp; G2 &amp; "," &amp; H2 &amp; "],"</f>
         <v>'total' : [0,-9,-2,14,5],</v>
       </c>
-      <c r="J2" s="7" t="str">
+      <c r="K2" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A2," ","_")  &amp; "_pct' : [" &amp; ROUND(((F2/B2)*-1),2) &amp; "," &amp; ROUND(((E2/B2)*-1),2) &amp; "," &amp; ROUND(((D2/B2)*-1),2)  &amp; "," &amp; ROUND((G2/B2),2) &amp; "," &amp; ROUND((H2/B2),2) &amp; "],"</f>
         <v>'total_pct' : [0,-0.3,-0.07,0.47,0.17],</v>
       </c>
-      <c r="K2" s="7" t="str">
-        <f>IF(ISBLANK(A2),K3,K3&amp;",df."&amp; SUBSTITUTE(A2," ","_") &amp;"_pct[xx]]")</f>
+      <c r="L2" s="7" t="str">
+        <f>IF(ISBLANK(A2),L3,L3&amp;",df."&amp; SUBSTITUTE(A2," ","_") &amp;"_pct[xx]]")</f>
         <v>[df.circuit_first_pct[xx],df.tt_first_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx],df.practicioner_pct[xx],df.academic_pct[xx],df.total_pct[xx]]</v>
       </c>
-      <c r="L2" s="7" t="str">
-        <f>IF(ISBLANK(A2),L3,L3&amp;",'"&amp; A2 &amp;"']")</f>
+      <c r="M2" s="7" t="str">
+        <f>IF(ISBLANK(A2),M3,M3&amp;",'"&amp; A2 &amp;"']")</f>
         <v>['circuit first','tt first','past','current','novice','senior','expert','practicioner','academic','total']</v>
       </c>
-      <c r="M2" s="7" t="str">
-        <f>IF(ISBLANK(A2),M3,M3&amp;",df."&amp; SUBSTITUTE(A2," ","_") &amp;"[xx]]")</f>
+      <c r="N2" s="7" t="str">
+        <f>IF(ISBLANK(A2),N3,N3&amp;",df."&amp; SUBSTITUTE(A2," ","_") &amp;"[xx]]")</f>
         <v>[df.circuit_first[xx],df.tt_first[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx],df.practicioner[xx],df.academic[xx],df.total[xx]]</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -6915,22 +7113,22 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="7" t="str">
-        <f t="shared" ref="K3:K13" si="1">IF(ISBLANK(A3),K4,K4&amp;",df."&amp; SUBSTITUTE(A3," ","_") &amp;"_pct[xx]")</f>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7" t="str">
+        <f t="shared" ref="L3:L13" si="1">IF(ISBLANK(A3),L4,L4&amp;",df."&amp; SUBSTITUTE(A3," ","_") &amp;"_pct[xx]")</f>
         <v>[df.circuit_first_pct[xx],df.tt_first_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx],df.practicioner_pct[xx],df.academic_pct[xx]</v>
       </c>
-      <c r="L3" s="7" t="str">
-        <f t="shared" ref="L3:L13" si="2">IF(ISBLANK(A3),L4,L4&amp;",'"&amp; A3 &amp;"'")</f>
+      <c r="M3" s="7" t="str">
+        <f t="shared" ref="M3:M13" si="2">IF(ISBLANK(A3),M4,M4&amp;",'"&amp; A3 &amp;"'")</f>
         <v>['circuit first','tt first','past','current','novice','senior','expert','practicioner','academic'</v>
       </c>
-      <c r="M3" s="7" t="str">
-        <f t="shared" ref="M3:M13" si="3">IF(ISBLANK(A3),M4,M4&amp;",df."&amp; SUBSTITUTE(A3," ","_") &amp;"[xx]")</f>
+      <c r="N3" s="7" t="str">
+        <f t="shared" ref="N3:N13" si="3">IF(ISBLANK(A3),N4,N4&amp;",df."&amp; SUBSTITUTE(A3," ","_") &amp;"[xx]")</f>
         <v>[df.circuit_first[xx],df.tt_first[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx],df.practicioner[xx],df.academic[xx]</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>312</v>
       </c>
@@ -6956,28 +7154,31 @@
       <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="7" t="str">
+      <c r="I4" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="J4" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A4," ","_") &amp; "' : [" &amp; (F4*-1) &amp; "," &amp; (E4*-1) &amp; "," &amp;(D4*-1)&amp; "," &amp; G4 &amp; "," &amp; H4 &amp; "],"</f>
         <v>'academic' : [0,-5,-1,3,1],</v>
       </c>
-      <c r="J4" s="7" t="str">
+      <c r="K4" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A4," ","_")  &amp; "_pct' : [" &amp; ROUND(((F4/B4)*-1),2) &amp; "," &amp; ROUND(((E4/B4)*-1),2) &amp; "," &amp; ROUND(((D4/B4)*-1),2)  &amp; "," &amp; ROUND((G4/B4),2) &amp; "," &amp; ROUND((H4/B4),2) &amp; "],"</f>
         <v>'academic_pct' : [0,-0.5,-0.1,0.3,0.1],</v>
       </c>
-      <c r="K4" s="7" t="str">
+      <c r="L4" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.circuit_first_pct[xx],df.tt_first_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx],df.practicioner_pct[xx],df.academic_pct[xx]</v>
       </c>
-      <c r="L4" s="7" t="str">
+      <c r="M4" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['circuit first','tt first','past','current','novice','senior','expert','practicioner','academic'</v>
       </c>
-      <c r="M4" s="7" t="str">
+      <c r="N4" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.circuit_first[xx],df.tt_first[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx],df.practicioner[xx],df.academic[xx]</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>313</v>
       </c>
@@ -7003,28 +7204,31 @@
       <c r="H5" s="7">
         <v>4</v>
       </c>
-      <c r="I5" s="7" t="str">
+      <c r="I5" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="J5" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A5," ","_") &amp; "' : [" &amp; (F5*-1) &amp; "," &amp; (E5*-1) &amp; "," &amp;(D5*-1)&amp; "," &amp; G5 &amp; "," &amp; H5 &amp; "],"</f>
         <v>'practicioner' : [0,-4,-1,11,4],</v>
       </c>
-      <c r="J5" s="7" t="str">
+      <c r="K5" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A5," ","_")  &amp; "_pct' : [" &amp; ROUND(((F5/B5)*-1),2) &amp; "," &amp; ROUND(((E5/B5)*-1),2) &amp; "," &amp; ROUND(((D5/B5)*-1),2)  &amp; "," &amp; ROUND((G5/B5),2) &amp; "," &amp; ROUND((H5/B5),2) &amp; "],"</f>
         <v>'practicioner_pct' : [0,-0.2,-0.05,0.55,0.2],</v>
       </c>
-      <c r="K5" s="7" t="str">
+      <c r="L5" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.circuit_first_pct[xx],df.tt_first_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx],df.practicioner_pct[xx]</v>
       </c>
-      <c r="L5" s="7" t="str">
+      <c r="M5" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['circuit first','tt first','past','current','novice','senior','expert','practicioner'</v>
       </c>
-      <c r="M5" s="7" t="str">
+      <c r="N5" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.circuit_first[xx],df.tt_first[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx],df.practicioner[xx]</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -7048,22 +7252,22 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="7" t="str">
+      <c r="K6" s="7"/>
+      <c r="L6" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.circuit_first_pct[xx],df.tt_first_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx]</v>
       </c>
-      <c r="L6" s="7" t="str">
+      <c r="M6" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['circuit first','tt first','past','current','novice','senior','expert'</v>
       </c>
-      <c r="M6" s="7" t="str">
+      <c r="N6" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.circuit_first[xx],df.tt_first[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx]</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>317</v>
       </c>
@@ -7089,28 +7293,31 @@
       <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="I7" s="7" t="str">
-        <f t="shared" ref="I7" si="5">"'"&amp;SUBSTITUTE(A7," ","_") &amp; "' : [" &amp; (F7*-1) &amp; "," &amp; (E7*-1) &amp; "," &amp;(D7*-1)&amp; "," &amp; G7 &amp; "," &amp; H7 &amp; "],"</f>
+      <c r="I7" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f t="shared" ref="J7" si="5">"'"&amp;SUBSTITUTE(A7," ","_") &amp; "' : [" &amp; (F7*-1) &amp; "," &amp; (E7*-1) &amp; "," &amp;(D7*-1)&amp; "," &amp; G7 &amp; "," &amp; H7 &amp; "],"</f>
         <v>'expert' : [0,-2,0,6,1],</v>
       </c>
-      <c r="J7" s="7" t="str">
+      <c r="K7" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A7," ","_")  &amp; "_pct' : [" &amp; ROUND(((F7/B7)*-1),2) &amp; "," &amp; ROUND(((E7/B7)*-1),2) &amp; "," &amp; ROUND(((D7/B7)*-1),2)  &amp; "," &amp; ROUND((G7/B7),2) &amp; "," &amp; ROUND((H7/B7),2) &amp; "],"</f>
         <v>'expert_pct' : [0,-0.22,0,0.67,0.11],</v>
       </c>
-      <c r="K7" s="7" t="str">
+      <c r="L7" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.circuit_first_pct[xx],df.tt_first_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx]</v>
       </c>
-      <c r="L7" s="7" t="str">
+      <c r="M7" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['circuit first','tt first','past','current','novice','senior','expert'</v>
       </c>
-      <c r="M7" s="7" t="str">
+      <c r="N7" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.circuit_first[xx],df.tt_first[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx]</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>318</v>
       </c>
@@ -7136,28 +7343,31 @@
       <c r="H8" s="7">
         <v>4</v>
       </c>
-      <c r="I8" s="7" t="str">
+      <c r="I8" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="J8" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A8," ","_") &amp; "' : [" &amp; (F8*-1) &amp; "," &amp; (E8*-1) &amp; "," &amp;(D8*-1)&amp; "," &amp; G8 &amp; "," &amp; H8 &amp; "],"</f>
         <v>'senior' : [0,-5,-2,5,4],</v>
       </c>
-      <c r="J8" s="7" t="str">
+      <c r="K8" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A8," ","_")  &amp; "_pct' : [" &amp; ROUND(((F8/B8)*-1),2) &amp; "," &amp; ROUND(((E8/B8)*-1),2) &amp; "," &amp; ROUND(((D8/B8)*-1),2)  &amp; "," &amp; ROUND((G8/B8),2) &amp; "," &amp; ROUND((H8/B8),2) &amp; "],"</f>
         <v>'senior_pct' : [0,-0.31,-0.13,0.31,0.25],</v>
       </c>
-      <c r="K8" s="7" t="str">
+      <c r="L8" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.circuit_first_pct[xx],df.tt_first_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx]</v>
       </c>
-      <c r="L8" s="7" t="str">
+      <c r="M8" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['circuit first','tt first','past','current','novice','senior'</v>
       </c>
-      <c r="M8" s="7" t="str">
+      <c r="N8" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.circuit_first[xx],df.tt_first[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx]</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>319</v>
       </c>
@@ -7183,28 +7393,28 @@
       <c r="H9" s="7">
         <v>0</v>
       </c>
-      <c r="I9" s="7" t="str">
+      <c r="J9" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A9," ","_") &amp; "' : [" &amp; (F9*-1) &amp; "," &amp; (E9*-1) &amp; "," &amp;(D9*-1)&amp; "," &amp; G9 &amp; "," &amp; H9 &amp; "],"</f>
         <v>'novice' : [0,-2,0,3,0],</v>
       </c>
-      <c r="J9" s="7" t="str">
+      <c r="K9" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A9," ","_")  &amp; "_pct' : [" &amp; ROUND(((F9/B9)*-1),2) &amp; "," &amp; ROUND(((E9/B9)*-1),2) &amp; "," &amp; ROUND(((D9/B9)*-1),2)  &amp; "," &amp; ROUND((G9/B9),2) &amp; "," &amp; ROUND((H9/B9),2) &amp; "],"</f>
         <v>'novice_pct' : [0,-0.4,0,0.6,0],</v>
       </c>
-      <c r="K9" s="7" t="str">
+      <c r="L9" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.circuit_first_pct[xx],df.tt_first_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx]</v>
       </c>
-      <c r="L9" s="7" t="str">
+      <c r="M9" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['circuit first','tt first','past','current','novice'</v>
       </c>
-      <c r="M9" s="7" t="str">
+      <c r="N9" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.circuit_first[xx],df.tt_first[xx],df.past[xx],df.current[xx],df.novice[xx]</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -7228,22 +7438,22 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="7" t="str">
+      <c r="K10" s="7"/>
+      <c r="L10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.circuit_first_pct[xx],df.tt_first_pct[xx],df.past_pct[xx],df.current_pct[xx]</v>
       </c>
-      <c r="L10" s="7" t="str">
+      <c r="M10" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['circuit first','tt first','past','current'</v>
       </c>
-      <c r="M10" s="7" t="str">
+      <c r="N10" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.circuit_first[xx],df.tt_first[xx],df.past[xx],df.current[xx]</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>320</v>
       </c>
@@ -7269,28 +7479,31 @@
       <c r="H11" s="7">
         <v>2</v>
       </c>
-      <c r="I11" s="7" t="str">
-        <f t="shared" ref="I11" si="7">"'"&amp;SUBSTITUTE(A11," ","_") &amp; "' : [" &amp; (F11*-1) &amp; "," &amp; (E11*-1) &amp; "," &amp;(D11*-1)&amp; "," &amp; G11 &amp; "," &amp; H11 &amp; "],"</f>
+      <c r="I11" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f t="shared" ref="J11" si="7">"'"&amp;SUBSTITUTE(A11," ","_") &amp; "' : [" &amp; (F11*-1) &amp; "," &amp; (E11*-1) &amp; "," &amp;(D11*-1)&amp; "," &amp; G11 &amp; "," &amp; H11 &amp; "],"</f>
         <v>'current' : [0,-2,-1,7,2],</v>
       </c>
-      <c r="J11" s="7" t="str">
+      <c r="K11" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A11," ","_")  &amp; "_pct' : [" &amp; ROUND(((F11/B11)*-1),2) &amp; "," &amp; ROUND(((E11/B11)*-1),2) &amp; "," &amp; ROUND(((D11/B11)*-1),2)  &amp; "," &amp; ROUND((G11/B11),2) &amp; "," &amp; ROUND((H11/B11),2) &amp; "],"</f>
         <v>'current_pct' : [0,-0.17,-0.08,0.58,0.17],</v>
       </c>
-      <c r="K11" s="7" t="str">
+      <c r="L11" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.circuit_first_pct[xx],df.tt_first_pct[xx],df.past_pct[xx],df.current_pct[xx]</v>
       </c>
-      <c r="L11" s="7" t="str">
+      <c r="M11" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['circuit first','tt first','past','current'</v>
       </c>
-      <c r="M11" s="7" t="str">
+      <c r="N11" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.circuit_first[xx],df.tt_first[xx],df.past[xx],df.current[xx]</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>321</v>
       </c>
@@ -7316,28 +7529,31 @@
       <c r="H12" s="7">
         <v>3</v>
       </c>
-      <c r="I12" s="7" t="str">
+      <c r="I12" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="J12" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A12," ","_") &amp; "' : [" &amp; (F12*-1) &amp; "," &amp; (E12*-1) &amp; "," &amp;(D12*-1)&amp; "," &amp; G12 &amp; "," &amp; H12 &amp; "],"</f>
         <v>'past' : [0,-7,-1,7,3],</v>
       </c>
-      <c r="J12" s="7" t="str">
+      <c r="K12" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A12," ","_")  &amp; "_pct' : [" &amp; ROUND(((F12/B12)*-1),2) &amp; "," &amp; ROUND(((E12/B12)*-1),2) &amp; "," &amp; ROUND(((D12/B12)*-1),2)  &amp; "," &amp; ROUND((G12/B12),2) &amp; "," &amp; ROUND((H12/B12),2) &amp; "],"</f>
         <v>'past_pct' : [0,-0.39,-0.06,0.39,0.17],</v>
       </c>
-      <c r="K12" s="7" t="str">
+      <c r="L12" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.circuit_first_pct[xx],df.tt_first_pct[xx],df.past_pct[xx]</v>
       </c>
-      <c r="L12" s="7" t="str">
+      <c r="M12" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['circuit first','tt first','past'</v>
       </c>
-      <c r="M12" s="7" t="str">
+      <c r="N12" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.circuit_first[xx],df.tt_first[xx],df.past[xx]</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -7361,22 +7577,22 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="7" t="str">
+      <c r="K13" s="7"/>
+      <c r="L13" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.circuit_first_pct[xx],df.tt_first_pct[xx]</v>
       </c>
-      <c r="L13" s="7" t="str">
+      <c r="M13" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['circuit first','tt first'</v>
       </c>
-      <c r="M13" s="7" t="str">
+      <c r="N13" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.circuit_first[xx],df.tt_first[xx]</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>339</v>
       </c>
@@ -7402,28 +7618,31 @@
       <c r="H14" s="7">
         <v>2</v>
       </c>
-      <c r="I14" s="7" t="str">
-        <f t="shared" ref="I14" si="9">"'"&amp;SUBSTITUTE(A14," ","_") &amp; "' : [" &amp; (F14*-1) &amp; "," &amp; (E14*-1) &amp; "," &amp;(D14*-1)&amp; "," &amp; G14 &amp; "," &amp; H14 &amp; "],"</f>
+      <c r="I14" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" ref="J14" si="9">"'"&amp;SUBSTITUTE(A14," ","_") &amp; "' : [" &amp; (F14*-1) &amp; "," &amp; (E14*-1) &amp; "," &amp;(D14*-1)&amp; "," &amp; G14 &amp; "," &amp; H14 &amp; "],"</f>
         <v>'tt_first' : [0,-5,0,7,2],</v>
       </c>
-      <c r="J14" s="7" t="str">
+      <c r="K14" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A14," ","_")  &amp; "_pct' : [" &amp; ROUND(((F14/B14)*-1),2) &amp; "," &amp; ROUND(((E14/B14)*-1),2) &amp; "," &amp; ROUND(((D14/B14)*-1),2)  &amp; "," &amp; ROUND((G14/B14),2) &amp; "," &amp; ROUND((H14/B14),2) &amp; "],"</f>
         <v>'tt_first_pct' : [0,-0.36,0,0.5,0.14],</v>
       </c>
-      <c r="K14" s="7" t="str">
-        <f>IF(ISBLANK(A14),K15,K15&amp;",df."&amp; SUBSTITUTE(A14," ","_") &amp;"_pct[xx]")</f>
+      <c r="L14" s="7" t="str">
+        <f>IF(ISBLANK(A14),L15,L15&amp;",df."&amp; SUBSTITUTE(A14," ","_") &amp;"_pct[xx]")</f>
         <v>[df.circuit_first_pct[xx],df.tt_first_pct[xx]</v>
       </c>
-      <c r="L14" s="7" t="str">
-        <f t="shared" ref="L14" si="10">IF(ISBLANK(A14),L15,L15&amp;",'"&amp; A14 &amp;"'")</f>
+      <c r="M14" s="7" t="str">
+        <f t="shared" ref="M14" si="10">IF(ISBLANK(A14),M15,M15&amp;",'"&amp; A14 &amp;"'")</f>
         <v>['circuit first','tt first'</v>
       </c>
-      <c r="M14" s="7" t="str">
-        <f>IF(ISBLANK(A14),M15,M15&amp;",df."&amp; SUBSTITUTE(A14," ","_") &amp;"[xx]")</f>
+      <c r="N14" s="7" t="str">
+        <f>IF(ISBLANK(A14),N15,N15&amp;",df."&amp; SUBSTITUTE(A14," ","_") &amp;"[xx]")</f>
         <v>[df.circuit_first[xx],df.tt_first[xx]</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>338</v>
       </c>
@@ -7449,28 +7668,31 @@
       <c r="H15" s="7">
         <v>3</v>
       </c>
-      <c r="I15" s="7" t="str">
+      <c r="I15" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="J15" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A15," ","_") &amp; "' : [" &amp; (F15*-1) &amp; "," &amp; (E15*-1) &amp; "," &amp;(D15*-1)&amp; "," &amp; G15 &amp; "," &amp; H15 &amp; "],"</f>
         <v>'circuit_first' : [0,-4,-2,7,3],</v>
       </c>
-      <c r="J15" s="7" t="str">
+      <c r="K15" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A15," ","_")  &amp; "_pct' : [" &amp; ROUND(((F15/B15)*-1),2) &amp; "," &amp; ROUND(((E15/B15)*-1),2) &amp; "," &amp; ROUND(((D15/B15)*-1),2)  &amp; "," &amp; ROUND((G15/B15),2) &amp; "," &amp; ROUND((H15/B15),2) &amp; "],"</f>
         <v>'circuit_first_pct' : [0,-0.25,-0.13,0.44,0.19],</v>
       </c>
-      <c r="K15" s="7" t="str">
+      <c r="L15" s="7" t="str">
         <f>"[df."&amp; SUBSTITUTE(A15," ","_") &amp;"_pct[xx]"</f>
         <v>[df.circuit_first_pct[xx]</v>
       </c>
-      <c r="L15" s="7" t="str">
+      <c r="M15" s="7" t="str">
         <f>"['"&amp; A15&amp;"'"</f>
         <v>['circuit first'</v>
       </c>
-      <c r="M15" s="7" t="str">
+      <c r="N15" s="7" t="str">
         <f>"[df."&amp; SUBSTITUTE(A15," ","_") &amp;"[xx]"</f>
         <v>[df.circuit_first[xx]</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -7494,28 +7716,31 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I17" s="7"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I17" s="7" t="s">
+        <v>348</v>
+      </c>
       <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I18" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="9:11" x14ac:dyDescent="0.35">
       <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I19" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="9:11" x14ac:dyDescent="0.35">
       <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I20" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="9:11" x14ac:dyDescent="0.35">
       <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I21" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="9:11" x14ac:dyDescent="0.35">
       <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7524,10 +7749,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E89FD6-A5B3-49FA-9795-07F4C25BE734}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="E2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7536,12 +7761,13 @@
     <col min="2" max="2" width="8.81640625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.81640625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="7.453125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="26.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="7"/>
+    <col min="9" max="9" width="31.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>315</v>
       </c>
@@ -7563,8 +7789,9 @@
       <c r="H1" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>311</v>
       </c>
@@ -7590,42 +7817,46 @@
       <c r="H2" s="7">
         <v>2</v>
       </c>
-      <c r="I2" s="7" t="str">
+      <c r="I2" s="7">
+        <f>(G2+H2)/(D2+E2)</f>
+        <v>1.6</v>
+      </c>
+      <c r="J2" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A2," ","_") &amp; "' : [" &amp; (F2*-1) &amp; "," &amp; (E2*-1) &amp; "," &amp;(D2*-1)&amp; "," &amp; G2 &amp; "," &amp; H2 &amp; "],"</f>
         <v>'total' : [-4,-7,-3,14,2],</v>
       </c>
-      <c r="J2" s="7" t="str">
+      <c r="K2" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A2," ","_")  &amp; "_pct' : [" &amp; ROUND(((F2/B2)*-1),2) &amp; "," &amp; ROUND(((E2/B2)*-1),2) &amp; "," &amp; ROUND(((D2/B2)*-1),2)  &amp; "," &amp; ROUND((G2/B2),2) &amp; "," &amp; ROUND((H2/B2),2) &amp; "],"</f>
         <v>'total_pct' : [-0.13,-0.23,-0.1,0.47,0.07],</v>
       </c>
-      <c r="K2" s="7" t="str">
-        <f>IF(ISBLANK(A2),K3,K3&amp;",df."&amp; SUBSTITUTE(A2," ","_") &amp;"_pct[xx]]")</f>
+      <c r="L2" s="7" t="str">
+        <f>IF(ISBLANK(A2),L3,L3&amp;",df."&amp; SUBSTITUTE(A2," ","_") &amp;"_pct[xx]]")</f>
         <v>[df.circuit_first_pct[xx],df.tt_first_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx],df.practicioner_pct[xx],df.academic_pct[xx],df.total_pct[xx]]</v>
       </c>
-      <c r="L2" s="7" t="str">
-        <f>IF(ISBLANK(A2),L3,L3&amp;",'"&amp; A2 &amp;"']")</f>
+      <c r="M2" s="7" t="str">
+        <f>IF(ISBLANK(A2),M3,M3&amp;",'"&amp; A2 &amp;"']")</f>
         <v>['circuit first','tt first','past','current','novice','senior','expert','practicioner','academic','total']</v>
       </c>
-      <c r="M2" s="7" t="str">
-        <f>IF(ISBLANK(A2),M3,M3&amp;",df."&amp; SUBSTITUTE(A2," ","_") &amp;"[xx]]")</f>
+      <c r="N2" s="7" t="str">
+        <f>IF(ISBLANK(A2),N3,N3&amp;",df."&amp; SUBSTITUTE(A2," ","_") &amp;"[xx]]")</f>
         <v>[df.circuit_first[xx],df.tt_first[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx],df.practicioner[xx],df.academic[xx],df.total[xx]]</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="K3" s="7" t="str">
-        <f t="shared" ref="K3:K13" si="1">IF(ISBLANK(A3),K4,K4&amp;",df."&amp; SUBSTITUTE(A3," ","_") &amp;"_pct[xx]")</f>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L3" s="7" t="str">
+        <f t="shared" ref="L3:L13" si="1">IF(ISBLANK(A3),L4,L4&amp;",df."&amp; SUBSTITUTE(A3," ","_") &amp;"_pct[xx]")</f>
         <v>[df.circuit_first_pct[xx],df.tt_first_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx],df.practicioner_pct[xx],df.academic_pct[xx]</v>
       </c>
-      <c r="L3" s="7" t="str">
-        <f t="shared" ref="L3:L14" si="2">IF(ISBLANK(A3),L4,L4&amp;",'"&amp; A3 &amp;"'")</f>
+      <c r="M3" s="7" t="str">
+        <f t="shared" ref="M3:M14" si="2">IF(ISBLANK(A3),M4,M4&amp;",'"&amp; A3 &amp;"'")</f>
         <v>['circuit first','tt first','past','current','novice','senior','expert','practicioner','academic'</v>
       </c>
-      <c r="M3" s="7" t="str">
-        <f t="shared" ref="M3:M13" si="3">IF(ISBLANK(A3),M4,M4&amp;",df."&amp; SUBSTITUTE(A3," ","_") &amp;"[xx]")</f>
+      <c r="N3" s="7" t="str">
+        <f t="shared" ref="N3:N13" si="3">IF(ISBLANK(A3),N4,N4&amp;",df."&amp; SUBSTITUTE(A3," ","_") &amp;"[xx]")</f>
         <v>[df.circuit_first[xx],df.tt_first[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx],df.practicioner[xx],df.academic[xx]</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>312</v>
       </c>
@@ -7651,28 +7882,31 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7" t="str">
+      <c r="I4" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="J4" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A4," ","_") &amp; "' : [" &amp; (F4*-1) &amp; "," &amp; (E4*-1) &amp; "," &amp;(D4*-1)&amp; "," &amp; G4 &amp; "," &amp; H4 &amp; "],"</f>
         <v>'academic' : [-1,-1,-1,7,0],</v>
       </c>
-      <c r="J4" s="7" t="str">
+      <c r="K4" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A4," ","_")  &amp; "_pct' : [" &amp; ROUND(((F4/B4)*-1),2) &amp; "," &amp; ROUND(((E4/B4)*-1),2) &amp; "," &amp; ROUND(((D4/B4)*-1),2)  &amp; "," &amp; ROUND((G4/B4),2) &amp; "," &amp; ROUND((H4/B4),2) &amp; "],"</f>
         <v>'academic_pct' : [-0.1,-0.1,-0.1,0.7,0],</v>
       </c>
-      <c r="K4" s="7" t="str">
+      <c r="L4" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.circuit_first_pct[xx],df.tt_first_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx],df.practicioner_pct[xx],df.academic_pct[xx]</v>
       </c>
-      <c r="L4" s="7" t="str">
+      <c r="M4" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['circuit first','tt first','past','current','novice','senior','expert','practicioner','academic'</v>
       </c>
-      <c r="M4" s="7" t="str">
+      <c r="N4" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.circuit_first[xx],df.tt_first[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx],df.practicioner[xx],df.academic[xx]</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>313</v>
       </c>
@@ -7698,28 +7932,31 @@
       <c r="H5" s="7">
         <v>2</v>
       </c>
-      <c r="I5" s="7" t="str">
+      <c r="I5" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="J5" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A5," ","_") &amp; "' : [" &amp; (F5*-1) &amp; "," &amp; (E5*-1) &amp; "," &amp;(D5*-1)&amp; "," &amp; G5 &amp; "," &amp; H5 &amp; "],"</f>
         <v>'practicioner' : [-3,-6,-2,7,2],</v>
       </c>
-      <c r="J5" s="7" t="str">
+      <c r="K5" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A5," ","_")  &amp; "_pct' : [" &amp; ROUND(((F5/B5)*-1),2) &amp; "," &amp; ROUND(((E5/B5)*-1),2) &amp; "," &amp; ROUND(((D5/B5)*-1),2)  &amp; "," &amp; ROUND((G5/B5),2) &amp; "," &amp; ROUND((H5/B5),2) &amp; "],"</f>
         <v>'practicioner_pct' : [-0.15,-0.3,-0.1,0.35,0.1],</v>
       </c>
-      <c r="K5" s="7" t="str">
+      <c r="L5" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.circuit_first_pct[xx],df.tt_first_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx],df.practicioner_pct[xx]</v>
       </c>
-      <c r="L5" s="7" t="str">
+      <c r="M5" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['circuit first','tt first','past','current','novice','senior','expert','practicioner'</v>
       </c>
-      <c r="M5" s="7" t="str">
+      <c r="N5" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.circuit_first[xx],df.tt_first[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx],df.practicioner[xx]</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D6" s="7" t="b">
         <f>SUM(D4:D5)=D2</f>
         <v>1</v>
@@ -7740,20 +7977,20 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K6" s="7" t="str">
+      <c r="L6" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.circuit_first_pct[xx],df.tt_first_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx]</v>
       </c>
-      <c r="L6" s="7" t="str">
+      <c r="M6" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['circuit first','tt first','past','current','novice','senior','expert'</v>
       </c>
-      <c r="M6" s="7" t="str">
+      <c r="N6" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.circuit_first[xx],df.tt_first[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx]</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>317</v>
       </c>
@@ -7779,28 +8016,31 @@
       <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="I7" s="7" t="str">
-        <f t="shared" ref="I7" si="5">"'"&amp;SUBSTITUTE(A7," ","_") &amp; "' : [" &amp; (F7*-1) &amp; "," &amp; (E7*-1) &amp; "," &amp;(D7*-1)&amp; "," &amp; G7 &amp; "," &amp; H7 &amp; "],"</f>
+      <c r="I7" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f t="shared" ref="J7" si="5">"'"&amp;SUBSTITUTE(A7," ","_") &amp; "' : [" &amp; (F7*-1) &amp; "," &amp; (E7*-1) &amp; "," &amp;(D7*-1)&amp; "," &amp; G7 &amp; "," &amp; H7 &amp; "],"</f>
         <v>'expert' : [-3,-1,0,4,1],</v>
       </c>
-      <c r="J7" s="7" t="str">
+      <c r="K7" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A7," ","_")  &amp; "_pct' : [" &amp; ROUND(((F7/B7)*-1),2) &amp; "," &amp; ROUND(((E7/B7)*-1),2) &amp; "," &amp; ROUND(((D7/B7)*-1),2)  &amp; "," &amp; ROUND((G7/B7),2) &amp; "," &amp; ROUND((H7/B7),2) &amp; "],"</f>
         <v>'expert_pct' : [-0.33,-0.11,0,0.44,0.11],</v>
       </c>
-      <c r="K7" s="7" t="str">
+      <c r="L7" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.circuit_first_pct[xx],df.tt_first_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx]</v>
       </c>
-      <c r="L7" s="7" t="str">
+      <c r="M7" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['circuit first','tt first','past','current','novice','senior','expert'</v>
       </c>
-      <c r="M7" s="7" t="str">
+      <c r="N7" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.circuit_first[xx],df.tt_first[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx]</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>318</v>
       </c>
@@ -7826,28 +8066,31 @@
       <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="I8" s="7" t="str">
+      <c r="I8" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="J8" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A8," ","_") &amp; "' : [" &amp; (F8*-1) &amp; "," &amp; (E8*-1) &amp; "," &amp;(D8*-1)&amp; "," &amp; G8 &amp; "," &amp; H8 &amp; "],"</f>
         <v>'senior' : [0,-4,-3,8,1],</v>
       </c>
-      <c r="J8" s="7" t="str">
+      <c r="K8" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A8," ","_")  &amp; "_pct' : [" &amp; ROUND(((F8/B8)*-1),2) &amp; "," &amp; ROUND(((E8/B8)*-1),2) &amp; "," &amp; ROUND(((D8/B8)*-1),2)  &amp; "," &amp; ROUND((G8/B8),2) &amp; "," &amp; ROUND((H8/B8),2) &amp; "],"</f>
         <v>'senior_pct' : [0,-0.25,-0.19,0.5,0.06],</v>
       </c>
-      <c r="K8" s="7" t="str">
+      <c r="L8" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.circuit_first_pct[xx],df.tt_first_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx]</v>
       </c>
-      <c r="L8" s="7" t="str">
+      <c r="M8" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['circuit first','tt first','past','current','novice','senior'</v>
       </c>
-      <c r="M8" s="7" t="str">
+      <c r="N8" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.circuit_first[xx],df.tt_first[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx]</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>319</v>
       </c>
@@ -7873,28 +8116,28 @@
       <c r="H9" s="7">
         <v>0</v>
       </c>
-      <c r="I9" s="7" t="str">
+      <c r="J9" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A9," ","_") &amp; "' : [" &amp; (F9*-1) &amp; "," &amp; (E9*-1) &amp; "," &amp;(D9*-1)&amp; "," &amp; G9 &amp; "," &amp; H9 &amp; "],"</f>
         <v>'novice' : [-1,-2,0,2,0],</v>
       </c>
-      <c r="J9" s="7" t="str">
+      <c r="K9" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A9," ","_")  &amp; "_pct' : [" &amp; ROUND(((F9/B9)*-1),2) &amp; "," &amp; ROUND(((E9/B9)*-1),2) &amp; "," &amp; ROUND(((D9/B9)*-1),2)  &amp; "," &amp; ROUND((G9/B9),2) &amp; "," &amp; ROUND((H9/B9),2) &amp; "],"</f>
         <v>'novice_pct' : [-0.2,-0.4,0,0.4,0],</v>
       </c>
-      <c r="K9" s="7" t="str">
+      <c r="L9" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.circuit_first_pct[xx],df.tt_first_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx]</v>
       </c>
-      <c r="L9" s="7" t="str">
+      <c r="M9" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['circuit first','tt first','past','current','novice'</v>
       </c>
-      <c r="M9" s="7" t="str">
+      <c r="N9" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.circuit_first[xx],df.tt_first[xx],df.past[xx],df.current[xx],df.novice[xx]</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D10" s="7" t="b">
         <f>SUM(D7:D9)=D2</f>
         <v>1</v>
@@ -7915,20 +8158,20 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K10" s="7" t="str">
+      <c r="L10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.circuit_first_pct[xx],df.tt_first_pct[xx],df.past_pct[xx],df.current_pct[xx]</v>
       </c>
-      <c r="L10" s="7" t="str">
+      <c r="M10" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['circuit first','tt first','past','current'</v>
       </c>
-      <c r="M10" s="7" t="str">
+      <c r="N10" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.circuit_first[xx],df.tt_first[xx],df.past[xx],df.current[xx]</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>320</v>
       </c>
@@ -7954,28 +8197,31 @@
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7" t="str">
-        <f t="shared" ref="I11" si="7">"'"&amp;SUBSTITUTE(A11," ","_") &amp; "' : [" &amp; (F11*-1) &amp; "," &amp; (E11*-1) &amp; "," &amp;(D11*-1)&amp; "," &amp; G11 &amp; "," &amp; H11 &amp; "],"</f>
+      <c r="I11" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f t="shared" ref="J11" si="7">"'"&amp;SUBSTITUTE(A11," ","_") &amp; "' : [" &amp; (F11*-1) &amp; "," &amp; (E11*-1) &amp; "," &amp;(D11*-1)&amp; "," &amp; G11 &amp; "," &amp; H11 &amp; "],"</f>
         <v>'current' : [-2,-2,0,8,0],</v>
       </c>
-      <c r="J11" s="7" t="str">
+      <c r="K11" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A11," ","_")  &amp; "_pct' : [" &amp; ROUND(((F11/B11)*-1),2) &amp; "," &amp; ROUND(((E11/B11)*-1),2) &amp; "," &amp; ROUND(((D11/B11)*-1),2)  &amp; "," &amp; ROUND((G11/B11),2) &amp; "," &amp; ROUND((H11/B11),2) &amp; "],"</f>
         <v>'current_pct' : [-0.17,-0.17,0,0.67,0],</v>
       </c>
-      <c r="K11" s="7" t="str">
+      <c r="L11" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.circuit_first_pct[xx],df.tt_first_pct[xx],df.past_pct[xx],df.current_pct[xx]</v>
       </c>
-      <c r="L11" s="7" t="str">
+      <c r="M11" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['circuit first','tt first','past','current'</v>
       </c>
-      <c r="M11" s="7" t="str">
+      <c r="N11" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.circuit_first[xx],df.tt_first[xx],df.past[xx],df.current[xx]</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>321</v>
       </c>
@@ -8001,28 +8247,31 @@
       <c r="H12" s="7">
         <v>2</v>
       </c>
-      <c r="I12" s="7" t="str">
+      <c r="I12" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J12" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A12," ","_") &amp; "' : [" &amp; (F12*-1) &amp; "," &amp; (E12*-1) &amp; "," &amp;(D12*-1)&amp; "," &amp; G12 &amp; "," &amp; H12 &amp; "],"</f>
         <v>'past' : [-2,-5,-3,6,2],</v>
       </c>
-      <c r="J12" s="7" t="str">
+      <c r="K12" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A12," ","_")  &amp; "_pct' : [" &amp; ROUND(((F12/B12)*-1),2) &amp; "," &amp; ROUND(((E12/B12)*-1),2) &amp; "," &amp; ROUND(((D12/B12)*-1),2)  &amp; "," &amp; ROUND((G12/B12),2) &amp; "," &amp; ROUND((H12/B12),2) &amp; "],"</f>
         <v>'past_pct' : [-0.11,-0.28,-0.17,0.33,0.11],</v>
       </c>
-      <c r="K12" s="7" t="str">
+      <c r="L12" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.circuit_first_pct[xx],df.tt_first_pct[xx],df.past_pct[xx]</v>
       </c>
-      <c r="L12" s="7" t="str">
+      <c r="M12" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['circuit first','tt first','past'</v>
       </c>
-      <c r="M12" s="7" t="str">
+      <c r="N12" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.circuit_first[xx],df.tt_first[xx],df.past[xx]</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D13" s="7" t="b">
         <f>SUM(D11:D12)=D2</f>
         <v>1</v>
@@ -8043,20 +8292,20 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="K13" s="7" t="str">
+      <c r="L13" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.circuit_first_pct[xx],df.tt_first_pct[xx]</v>
       </c>
-      <c r="L13" s="7" t="str">
+      <c r="M13" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['circuit first','tt first'</v>
       </c>
-      <c r="M13" s="7" t="str">
+      <c r="N13" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.circuit_first[xx],df.tt_first[xx]</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>339</v>
       </c>
@@ -8082,28 +8331,31 @@
       <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="I14" s="7" t="str">
-        <f t="shared" ref="I14" si="9">"'"&amp;SUBSTITUTE(A14," ","_") &amp; "' : [" &amp; (F14*-1) &amp; "," &amp; (E14*-1) &amp; "," &amp;(D14*-1)&amp; "," &amp; G14 &amp; "," &amp; H14 &amp; "],"</f>
+      <c r="I14" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" ref="J14" si="9">"'"&amp;SUBSTITUTE(A14," ","_") &amp; "' : [" &amp; (F14*-1) &amp; "," &amp; (E14*-1) &amp; "," &amp;(D14*-1)&amp; "," &amp; G14 &amp; "," &amp; H14 &amp; "],"</f>
         <v>'tt_first' : [-3,-3,-1,6,1],</v>
       </c>
-      <c r="J14" s="7" t="str">
+      <c r="K14" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A14," ","_")  &amp; "_pct' : [" &amp; ROUND(((F14/B14)*-1),2) &amp; "," &amp; ROUND(((E14/B14)*-1),2) &amp; "," &amp; ROUND(((D14/B14)*-1),2)  &amp; "," &amp; ROUND((G14/B14),2) &amp; "," &amp; ROUND((H14/B14),2) &amp; "],"</f>
         <v>'tt_first_pct' : [-0.21,-0.21,-0.07,0.43,0.07],</v>
       </c>
-      <c r="K14" s="7" t="str">
-        <f>IF(ISBLANK(A14),K15,K15&amp;",df."&amp; SUBSTITUTE(A14," ","_") &amp;"_pct[xx]")</f>
+      <c r="L14" s="7" t="str">
+        <f>IF(ISBLANK(A14),L15,L15&amp;",df."&amp; SUBSTITUTE(A14," ","_") &amp;"_pct[xx]")</f>
         <v>[df.circuit_first_pct[xx],df.tt_first_pct[xx]</v>
       </c>
-      <c r="L14" s="7" t="str">
+      <c r="M14" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['circuit first','tt first'</v>
       </c>
-      <c r="M14" s="7" t="str">
-        <f>IF(ISBLANK(A14),M15,M15&amp;",df."&amp; SUBSTITUTE(A14," ","_") &amp;"[xx]")</f>
+      <c r="N14" s="7" t="str">
+        <f>IF(ISBLANK(A14),N15,N15&amp;",df."&amp; SUBSTITUTE(A14," ","_") &amp;"[xx]")</f>
         <v>[df.circuit_first[xx],df.tt_first[xx]</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>338</v>
       </c>
@@ -8129,28 +8381,31 @@
       <c r="H15" s="7">
         <v>1</v>
       </c>
-      <c r="I15" s="7" t="str">
+      <c r="I15" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="J15" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A15," ","_") &amp; "' : [" &amp; (F15*-1) &amp; "," &amp; (E15*-1) &amp; "," &amp;(D15*-1)&amp; "," &amp; G15 &amp; "," &amp; H15 &amp; "],"</f>
         <v>'circuit_first' : [-1,-4,-2,8,1],</v>
       </c>
-      <c r="J15" s="7" t="str">
+      <c r="K15" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A15," ","_")  &amp; "_pct' : [" &amp; ROUND(((F15/B15)*-1),2) &amp; "," &amp; ROUND(((E15/B15)*-1),2) &amp; "," &amp; ROUND(((D15/B15)*-1),2)  &amp; "," &amp; ROUND((G15/B15),2) &amp; "," &amp; ROUND((H15/B15),2) &amp; "],"</f>
         <v>'circuit_first_pct' : [-0.06,-0.25,-0.13,0.5,0.06],</v>
       </c>
-      <c r="K15" s="7" t="str">
+      <c r="L15" s="7" t="str">
         <f>"[df."&amp; SUBSTITUTE(A15," ","_") &amp;"_pct[xx]"</f>
         <v>[df.circuit_first_pct[xx]</v>
       </c>
-      <c r="L15" s="7" t="str">
+      <c r="M15" s="7" t="str">
         <f>"['"&amp; A15&amp;"'"</f>
         <v>['circuit first'</v>
       </c>
-      <c r="M15" s="7" t="str">
+      <c r="N15" s="7" t="str">
         <f>"[df."&amp; SUBSTITUTE(A15," ","_") &amp;"[xx]"</f>
         <v>[df.circuit_first[xx]</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D16" s="7" t="b">
         <f>SUM(D14:D15)=D$2</f>
         <v>1</v>
@@ -11735,7 +11990,7 @@
   <dimension ref="A1:AR56"/>
   <sheetViews>
     <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AR44" sqref="AR2:AR44"/>
+      <selection activeCell="AR43" sqref="AR43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16470,10 +16725,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1A1243-A310-4207-BCAF-A3EEEC26C550}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="A1:K14"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16481,10 +16736,11 @@
     <col min="1" max="1" width="35.08984375" customWidth="1"/>
     <col min="2" max="2" width="8.81640625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.08984375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>315</v>
       </c>
@@ -16506,8 +16762,9 @@
       <c r="H1" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>311</v>
       </c>
@@ -16533,17 +16790,21 @@
       <c r="H2">
         <v>4</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I2" s="7">
+        <f>(G2+H2)/(D2+E2)</f>
+        <v>5.25</v>
+      </c>
+      <c r="J2" t="str">
         <f>"'"&amp;A2 &amp; "' : [" &amp; (F2*-1) &amp; "," &amp; (E2*-1) &amp; "," &amp;(D2*-1)&amp; "," &amp; G2 &amp; "," &amp; H2 &amp; "],"</f>
         <v>'total' : [-5,-4,0,17,4],</v>
       </c>
-      <c r="J2" t="str">
+      <c r="K2" t="str">
         <f>"'" &amp; A2 &amp; "_pct' : [" &amp; ROUND(((F2/B2)*-1),2) &amp; "," &amp; ROUND(((E2/B2)*-1),2) &amp; "," &amp; ROUND(((D2/B2)*-1),2)  &amp; "," &amp; ROUND((G2/B2),2) &amp; "," &amp; ROUND((H2/B2),2) &amp; "],"</f>
         <v>'total_pct' : [-0.17,-0.13,0,0.57,0.13],</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>312</v>
       </c>
@@ -16569,16 +16830,19 @@
       <c r="H4">
         <v>3</v>
       </c>
-      <c r="I4" s="7" t="str">
-        <f t="shared" ref="I4:I12" si="1">"'"&amp;A4 &amp; "' : [" &amp; (F4*-1) &amp; "," &amp; (E4*-1) &amp; "," &amp;(D4*-1)&amp; "," &amp; G4 &amp; "," &amp; H4 &amp; "],"</f>
+      <c r="I4" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="J4" s="7" t="str">
+        <f t="shared" ref="J4:J12" si="1">"'"&amp;A4 &amp; "' : [" &amp; (F4*-1) &amp; "," &amp; (E4*-1) &amp; "," &amp;(D4*-1)&amp; "," &amp; G4 &amp; "," &amp; H4 &amp; "],"</f>
         <v>'academic' : [-1,0,0,6,3],</v>
       </c>
-      <c r="J4" s="7" t="str">
-        <f t="shared" ref="J4:J12" si="2">"'" &amp; A4 &amp; "_pct' : [" &amp; ROUND(((F4/B4)*-1),2) &amp; "," &amp; ROUND(((E4/B4)*-1),2) &amp; "," &amp; ROUND(((D4/B4)*-1),2)  &amp; "," &amp; ROUND((G4/B4),2) &amp; "," &amp; ROUND((H4/B4),2) &amp; "],"</f>
+      <c r="K4" s="7" t="str">
+        <f t="shared" ref="K4:K12" si="2">"'" &amp; A4 &amp; "_pct' : [" &amp; ROUND(((F4/B4)*-1),2) &amp; "," &amp; ROUND(((E4/B4)*-1),2) &amp; "," &amp; ROUND(((D4/B4)*-1),2)  &amp; "," &amp; ROUND((G4/B4),2) &amp; "," &amp; ROUND((H4/B4),2) &amp; "],"</f>
         <v>'academic_pct' : [-0.1,0,0,0.6,0.3],</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>313</v>
       </c>
@@ -16604,16 +16868,19 @@
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5" s="7" t="str">
+      <c r="I5" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="J5" s="7" t="str">
         <f t="shared" si="1"/>
         <v>'practicioner' : [-4,-4,0,11,1],</v>
       </c>
-      <c r="J5" s="7" t="str">
+      <c r="K5" s="7" t="str">
         <f t="shared" si="2"/>
         <v>'practicioner_pct' : [-0.2,-0.2,0,0.55,0.05],</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D6" s="7" t="b">
         <f>SUM(D4:D5)=D2</f>
         <v>1</v>
@@ -16635,7 +16902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>317</v>
       </c>
@@ -16661,16 +16928,19 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" s="7" t="str">
+      <c r="I7" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J7" s="7" t="str">
         <f t="shared" si="1"/>
         <v>'expert' : [-3,-2,0,3,1],</v>
       </c>
-      <c r="J7" s="7" t="str">
+      <c r="K7" s="7" t="str">
         <f t="shared" si="2"/>
         <v>'expert_pct' : [-0.33,-0.22,0,0.33,0.11],</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>318</v>
       </c>
@@ -16696,16 +16966,19 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8" s="7" t="str">
+      <c r="I8" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="J8" s="7" t="str">
         <f t="shared" si="1"/>
         <v>'senior' : [-2,-2,0,11,1],</v>
       </c>
-      <c r="J8" s="7" t="str">
+      <c r="K8" s="7" t="str">
         <f t="shared" si="2"/>
         <v>'senior_pct' : [-0.13,-0.13,0,0.69,0.06],</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>319</v>
       </c>
@@ -16731,16 +17004,16 @@
       <c r="H9">
         <v>2</v>
       </c>
-      <c r="I9" s="7" t="str">
+      <c r="J9" s="7" t="str">
         <f t="shared" si="1"/>
         <v>'novice' : [0,0,0,3,2],</v>
       </c>
-      <c r="J9" s="7" t="str">
+      <c r="K9" s="7" t="str">
         <f t="shared" si="2"/>
         <v>'novice_pct' : [0,0,0,0.6,0.4],</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D10" s="7" t="b">
         <f>SUM(D7:D9)=D2</f>
         <v>1</v>
@@ -16762,7 +17035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>320</v>
       </c>
@@ -16788,16 +17061,19 @@
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11" s="7" t="str">
+      <c r="I11" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="J11" s="7" t="str">
         <f t="shared" si="1"/>
         <v>'current' : [-1,-3,0,7,1],</v>
       </c>
-      <c r="J11" s="7" t="str">
+      <c r="K11" s="7" t="str">
         <f t="shared" si="2"/>
         <v>'current_pct' : [-0.08,-0.25,0,0.58,0.08],</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>321</v>
       </c>
@@ -16823,16 +17099,19 @@
       <c r="H12">
         <v>3</v>
       </c>
-      <c r="I12" s="7" t="str">
+      <c r="I12" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="J12" s="7" t="str">
         <f t="shared" si="1"/>
         <v>'past' : [-4,-1,0,10,3],</v>
       </c>
-      <c r="J12" s="7" t="str">
+      <c r="K12" s="7" t="str">
         <f t="shared" si="2"/>
         <v>'past_pct' : [-0.22,-0.06,0,0.56,0.17],</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D13" t="b">
         <f>SUM(D11:D12)=D2</f>
         <v>1</v>
@@ -16862,20 +17141,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C22359-5314-43E8-AF1A-50A8F1058A66}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H2" sqref="G2:H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="7"/>
       <c r="B1" s="7" t="s">
         <v>315</v>
@@ -16898,11 +17178,12 @@
       <c r="H1" s="1">
         <v>5</v>
       </c>
-      <c r="I1" s="7"/>
+      <c r="I1" s="1"/>
       <c r="J1" s="7"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>311</v>
       </c>
@@ -16928,28 +17209,32 @@
       <c r="H2" s="7">
         <v>7</v>
       </c>
-      <c r="I2" s="7" t="str">
+      <c r="I2" s="7">
+        <f>(G2+H2)/(D2+E2)</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="J2" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A2," ","_") &amp; "' : [" &amp; (F2*-1) &amp; "," &amp; (E2*-1) &amp; "," &amp;(D2*-1)&amp; "," &amp; G2 &amp; "," &amp; H2 &amp; "],"</f>
         <v>'total' : [-10,-5,-1,7,7],</v>
       </c>
-      <c r="J2" s="7" t="str">
+      <c r="K2" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A2," ","_")  &amp; "_pct' : [" &amp; ROUND(((F2/B2)*-1),2) &amp; "," &amp; ROUND(((E2/B2)*-1),2) &amp; "," &amp; ROUND(((D2/B2)*-1),2)  &amp; "," &amp; ROUND((G2/B2),2) &amp; "," &amp; ROUND((H2/B2),2) &amp; "],"</f>
         <v>'total_pct' : [-0.33,-0.17,-0.03,0.23,0.23],</v>
       </c>
-      <c r="K2" s="7" t="str">
-        <f>IF(ISBLANK(A2),K3,K3&amp;",df."&amp; SUBSTITUTE(A2," ","_") &amp;"_pct[xx]]")</f>
+      <c r="L2" s="7" t="str">
+        <f>IF(ISBLANK(A2),L3,L3&amp;",df."&amp; SUBSTITUTE(A2," ","_") &amp;"_pct[xx]]")</f>
         <v>[df.text_pct[xx],df.projection_pct[xx],df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx],df.practicioner_pct[xx],df.academic_pct[xx],df.total_pct[xx]]</v>
       </c>
-      <c r="L2" s="7" t="str">
-        <f>IF(ISBLANK(A2),L3,L3&amp;",'"&amp;A2&amp;"']")</f>
+      <c r="M2" s="7" t="str">
+        <f>IF(ISBLANK(A2),M3,M3&amp;",'"&amp;A2&amp;"']")</f>
         <v>['text','projection','ruleset 2','ruleset 1','spreadsheet','decision table','past','current','novice','senior','expert','practicioner','academic','total']</v>
       </c>
-      <c r="M2" t="str">
-        <f>IF(ISBLANK(A2),M3,M3&amp;",df."&amp; SUBSTITUTE(A2," ","_") &amp;"[xx]]")</f>
+      <c r="N2" t="str">
+        <f>IF(ISBLANK(A2),N3,N3&amp;",df."&amp; SUBSTITUTE(A2," ","_") &amp;"[xx]]")</f>
         <v>[df.text[xx],df.projection[xx],df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx],df.practicioner[xx],df.academic[xx],df.total[xx]]</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -16958,22 +17243,22 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="7" t="str">
-        <f t="shared" ref="K3:K20" si="1">IF(ISBLANK(A3),K4,K4&amp;",df."&amp; SUBSTITUTE(A3," ","_") &amp;"_pct[xx]")</f>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7" t="str">
+        <f t="shared" ref="L3:L20" si="1">IF(ISBLANK(A3),L4,L4&amp;",df."&amp; SUBSTITUTE(A3," ","_") &amp;"_pct[xx]")</f>
         <v>[df.text_pct[xx],df.projection_pct[xx],df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx],df.practicioner_pct[xx],df.academic_pct[xx]</v>
       </c>
-      <c r="L3" s="7" t="str">
-        <f>IF(ISBLANK(A3),L4,L4&amp;",'"&amp; A3 &amp;"'")</f>
+      <c r="M3" s="7" t="str">
+        <f>IF(ISBLANK(A3),M4,M4&amp;",'"&amp; A3 &amp;"'")</f>
         <v>['text','projection','ruleset 2','ruleset 1','spreadsheet','decision table','past','current','novice','senior','expert','practicioner','academic'</v>
       </c>
-      <c r="M3" s="7" t="str">
-        <f t="shared" ref="M3:M20" si="2">IF(ISBLANK(A3),M4,M4&amp;",df."&amp; SUBSTITUTE(A3," ","_") &amp;"[xx]")</f>
+      <c r="N3" s="7" t="str">
+        <f t="shared" ref="N3:N20" si="2">IF(ISBLANK(A3),N4,N4&amp;",df."&amp; SUBSTITUTE(A3," ","_") &amp;"[xx]")</f>
         <v>[df.text[xx],df.projection[xx],df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx],df.practicioner[xx],df.academic[xx]</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>312</v>
       </c>
@@ -16999,28 +17284,31 @@
       <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="I4" s="7" t="str">
+      <c r="I4" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="J4" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A4," ","_") &amp; "' : [" &amp; (F4*-1) &amp; "," &amp; (E4*-1) &amp; "," &amp;(D4*-1)&amp; "," &amp; G4 &amp; "," &amp; H4 &amp; "],"</f>
         <v>'academic' : [-4,-3,0,1,2],</v>
       </c>
-      <c r="J4" s="7" t="str">
+      <c r="K4" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A4," ","_")  &amp; "_pct' : [" &amp; ROUND(((F4/B4)*-1),2) &amp; "," &amp; ROUND(((E4/B4)*-1),2) &amp; "," &amp; ROUND(((D4/B4)*-1),2)  &amp; "," &amp; ROUND((G4/B4),2) &amp; "," &amp; ROUND((H4/B4),2) &amp; "],"</f>
         <v>'academic_pct' : [-0.4,-0.3,0,0.1,0.2],</v>
       </c>
-      <c r="K4" s="7" t="str">
+      <c r="L4" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.text_pct[xx],df.projection_pct[xx],df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx],df.practicioner_pct[xx],df.academic_pct[xx]</v>
       </c>
-      <c r="L4" s="7" t="str">
-        <f t="shared" ref="L4:L20" si="3">IF(ISBLANK(A4),L5,L5&amp;",'"&amp; A4 &amp;"'")</f>
+      <c r="M4" s="7" t="str">
+        <f t="shared" ref="M4:M20" si="3">IF(ISBLANK(A4),M5,M5&amp;",'"&amp; A4 &amp;"'")</f>
         <v>['text','projection','ruleset 2','ruleset 1','spreadsheet','decision table','past','current','novice','senior','expert','practicioner','academic'</v>
       </c>
-      <c r="M4" s="7" t="str">
+      <c r="N4" s="7" t="str">
         <f t="shared" si="2"/>
         <v>[df.text[xx],df.projection[xx],df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx],df.practicioner[xx],df.academic[xx]</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>313</v>
       </c>
@@ -17046,28 +17334,31 @@
       <c r="H5" s="7">
         <v>5</v>
       </c>
-      <c r="I5" s="7" t="str">
+      <c r="I5" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="J5" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A5," ","_") &amp; "' : [" &amp; (F5*-1) &amp; "," &amp; (E5*-1) &amp; "," &amp;(D5*-1)&amp; "," &amp; G5 &amp; "," &amp; H5 &amp; "],"</f>
         <v>'practicioner' : [-6,-2,-1,6,5],</v>
       </c>
-      <c r="J5" s="7" t="str">
+      <c r="K5" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A5," ","_")  &amp; "_pct' : [" &amp; ROUND(((F5/B5)*-1),2) &amp; "," &amp; ROUND(((E5/B5)*-1),2) &amp; "," &amp; ROUND(((D5/B5)*-1),2)  &amp; "," &amp; ROUND((G5/B5),2) &amp; "," &amp; ROUND((H5/B5),2) &amp; "],"</f>
         <v>'practicioner_pct' : [-0.3,-0.1,-0.05,0.3,0.25],</v>
       </c>
-      <c r="K5" s="7" t="str">
+      <c r="L5" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.text_pct[xx],df.projection_pct[xx],df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx],df.practicioner_pct[xx]</v>
       </c>
-      <c r="L5" s="7" t="str">
+      <c r="M5" s="7" t="str">
         <f t="shared" si="3"/>
         <v>['text','projection','ruleset 2','ruleset 1','spreadsheet','decision table','past','current','novice','senior','expert','practicioner'</v>
       </c>
-      <c r="M5" s="7" t="str">
+      <c r="N5" s="7" t="str">
         <f t="shared" si="2"/>
         <v>[df.text[xx],df.projection[xx],df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx],df.practicioner[xx]</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -17091,22 +17382,22 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="7" t="str">
+      <c r="K6" s="7"/>
+      <c r="L6" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.text_pct[xx],df.projection_pct[xx],df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx]</v>
       </c>
-      <c r="L6" s="7" t="str">
+      <c r="M6" s="7" t="str">
         <f t="shared" si="3"/>
         <v>['text','projection','ruleset 2','ruleset 1','spreadsheet','decision table','past','current','novice','senior','expert'</v>
       </c>
-      <c r="M6" s="7" t="str">
+      <c r="N6" s="7" t="str">
         <f t="shared" si="2"/>
         <v>[df.text[xx],df.projection[xx],df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx]</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>317</v>
       </c>
@@ -17132,28 +17423,31 @@
       <c r="H7" s="7">
         <v>2</v>
       </c>
-      <c r="I7" s="7" t="str">
-        <f t="shared" ref="I7" si="5">"'"&amp;SUBSTITUTE(A7," ","_") &amp; "' : [" &amp; (F7*-1) &amp; "," &amp; (E7*-1) &amp; "," &amp;(D7*-1)&amp; "," &amp; G7 &amp; "," &amp; H7 &amp; "],"</f>
+      <c r="I7" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f t="shared" ref="J7" si="5">"'"&amp;SUBSTITUTE(A7," ","_") &amp; "' : [" &amp; (F7*-1) &amp; "," &amp; (E7*-1) &amp; "," &amp;(D7*-1)&amp; "," &amp; G7 &amp; "," &amp; H7 &amp; "],"</f>
         <v>'expert' : [-3,-1,-1,2,2],</v>
       </c>
-      <c r="J7" s="7" t="str">
+      <c r="K7" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A7," ","_")  &amp; "_pct' : [" &amp; ROUND(((F7/B7)*-1),2) &amp; "," &amp; ROUND(((E7/B7)*-1),2) &amp; "," &amp; ROUND(((D7/B7)*-1),2)  &amp; "," &amp; ROUND((G7/B7),2) &amp; "," &amp; ROUND((H7/B7),2) &amp; "],"</f>
         <v>'expert_pct' : [-0.33,-0.11,-0.11,0.22,0.22],</v>
       </c>
-      <c r="K7" s="7" t="str">
+      <c r="L7" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.text_pct[xx],df.projection_pct[xx],df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx]</v>
       </c>
-      <c r="L7" s="7" t="str">
+      <c r="M7" s="7" t="str">
         <f t="shared" si="3"/>
         <v>['text','projection','ruleset 2','ruleset 1','spreadsheet','decision table','past','current','novice','senior','expert'</v>
       </c>
-      <c r="M7" s="7" t="str">
+      <c r="N7" s="7" t="str">
         <f t="shared" si="2"/>
         <v>[df.text[xx],df.projection[xx],df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx]</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>318</v>
       </c>
@@ -17179,28 +17473,31 @@
       <c r="H8" s="7">
         <v>4</v>
       </c>
-      <c r="I8" s="7" t="str">
+      <c r="I8" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="J8" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A8," ","_") &amp; "' : [" &amp; (F8*-1) &amp; "," &amp; (E8*-1) &amp; "," &amp;(D8*-1)&amp; "," &amp; G8 &amp; "," &amp; H8 &amp; "],"</f>
         <v>'senior' : [-5,-2,0,5,4],</v>
       </c>
-      <c r="J8" s="7" t="str">
+      <c r="K8" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A8," ","_")  &amp; "_pct' : [" &amp; ROUND(((F8/B8)*-1),2) &amp; "," &amp; ROUND(((E8/B8)*-1),2) &amp; "," &amp; ROUND(((D8/B8)*-1),2)  &amp; "," &amp; ROUND((G8/B8),2) &amp; "," &amp; ROUND((H8/B8),2) &amp; "],"</f>
         <v>'senior_pct' : [-0.31,-0.13,0,0.31,0.25],</v>
       </c>
-      <c r="K8" s="7" t="str">
+      <c r="L8" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.text_pct[xx],df.projection_pct[xx],df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx]</v>
       </c>
-      <c r="L8" s="7" t="str">
+      <c r="M8" s="7" t="str">
         <f t="shared" si="3"/>
         <v>['text','projection','ruleset 2','ruleset 1','spreadsheet','decision table','past','current','novice','senior'</v>
       </c>
-      <c r="M8" s="7" t="str">
+      <c r="N8" s="7" t="str">
         <f t="shared" si="2"/>
         <v>[df.text[xx],df.projection[xx],df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx]</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>319</v>
       </c>
@@ -17226,28 +17523,28 @@
       <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="I9" s="7" t="str">
+      <c r="J9" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A9," ","_") &amp; "' : [" &amp; (F9*-1) &amp; "," &amp; (E9*-1) &amp; "," &amp;(D9*-1)&amp; "," &amp; G9 &amp; "," &amp; H9 &amp; "],"</f>
         <v>'novice' : [-2,-2,0,0,1],</v>
       </c>
-      <c r="J9" s="7" t="str">
+      <c r="K9" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A9," ","_")  &amp; "_pct' : [" &amp; ROUND(((F9/B9)*-1),2) &amp; "," &amp; ROUND(((E9/B9)*-1),2) &amp; "," &amp; ROUND(((D9/B9)*-1),2)  &amp; "," &amp; ROUND((G9/B9),2) &amp; "," &amp; ROUND((H9/B9),2) &amp; "],"</f>
         <v>'novice_pct' : [-0.4,-0.4,0,0,0.2],</v>
       </c>
-      <c r="K9" s="7" t="str">
+      <c r="L9" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.text_pct[xx],df.projection_pct[xx],df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx]</v>
       </c>
-      <c r="L9" s="7" t="str">
+      <c r="M9" s="7" t="str">
         <f t="shared" si="3"/>
         <v>['text','projection','ruleset 2','ruleset 1','spreadsheet','decision table','past','current','novice'</v>
       </c>
-      <c r="M9" s="7" t="str">
+      <c r="N9" s="7" t="str">
         <f t="shared" si="2"/>
         <v>[df.text[xx],df.projection[xx],df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx],df.current[xx],df.novice[xx]</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -17271,22 +17568,22 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="7" t="str">
+      <c r="K10" s="7"/>
+      <c r="L10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.text_pct[xx],df.projection_pct[xx],df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx],df.current_pct[xx]</v>
       </c>
-      <c r="L10" s="7" t="str">
+      <c r="M10" s="7" t="str">
         <f t="shared" si="3"/>
         <v>['text','projection','ruleset 2','ruleset 1','spreadsheet','decision table','past','current'</v>
       </c>
-      <c r="M10" s="7" t="str">
+      <c r="N10" s="7" t="str">
         <f t="shared" si="2"/>
         <v>[df.text[xx],df.projection[xx],df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx],df.current[xx]</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>320</v>
       </c>
@@ -17312,28 +17609,31 @@
       <c r="H11" s="7">
         <v>2</v>
       </c>
-      <c r="I11" s="7" t="str">
-        <f t="shared" ref="I11" si="7">"'"&amp;SUBSTITUTE(A11," ","_") &amp; "' : [" &amp; (F11*-1) &amp; "," &amp; (E11*-1) &amp; "," &amp;(D11*-1)&amp; "," &amp; G11 &amp; "," &amp; H11 &amp; "],"</f>
+      <c r="I11" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f t="shared" ref="J11" si="7">"'"&amp;SUBSTITUTE(A11," ","_") &amp; "' : [" &amp; (F11*-1) &amp; "," &amp; (E11*-1) &amp; "," &amp;(D11*-1)&amp; "," &amp; G11 &amp; "," &amp; H11 &amp; "],"</f>
         <v>'current' : [-5,-2,-1,2,2],</v>
       </c>
-      <c r="J11" s="7" t="str">
+      <c r="K11" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A11," ","_")  &amp; "_pct' : [" &amp; ROUND(((F11/B11)*-1),2) &amp; "," &amp; ROUND(((E11/B11)*-1),2) &amp; "," &amp; ROUND(((D11/B11)*-1),2)  &amp; "," &amp; ROUND((G11/B11),2) &amp; "," &amp; ROUND((H11/B11),2) &amp; "],"</f>
         <v>'current_pct' : [-0.42,-0.17,-0.08,0.17,0.17],</v>
       </c>
-      <c r="K11" s="7" t="str">
+      <c r="L11" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.text_pct[xx],df.projection_pct[xx],df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx],df.current_pct[xx]</v>
       </c>
-      <c r="L11" s="7" t="str">
+      <c r="M11" s="7" t="str">
         <f t="shared" si="3"/>
         <v>['text','projection','ruleset 2','ruleset 1','spreadsheet','decision table','past','current'</v>
       </c>
-      <c r="M11" s="7" t="str">
+      <c r="N11" s="7" t="str">
         <f t="shared" si="2"/>
         <v>[df.text[xx],df.projection[xx],df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx],df.current[xx]</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>321</v>
       </c>
@@ -17359,28 +17659,31 @@
       <c r="H12" s="7">
         <v>5</v>
       </c>
-      <c r="I12" s="7" t="str">
+      <c r="I12" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="J12" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A12," ","_") &amp; "' : [" &amp; (F12*-1) &amp; "," &amp; (E12*-1) &amp; "," &amp;(D12*-1)&amp; "," &amp; G12 &amp; "," &amp; H12 &amp; "],"</f>
         <v>'past' : [-5,-3,0,5,5],</v>
       </c>
-      <c r="J12" s="7" t="str">
+      <c r="K12" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A12," ","_")  &amp; "_pct' : [" &amp; ROUND(((F12/B12)*-1),2) &amp; "," &amp; ROUND(((E12/B12)*-1),2) &amp; "," &amp; ROUND(((D12/B12)*-1),2)  &amp; "," &amp; ROUND((G12/B12),2) &amp; "," &amp; ROUND((H12/B12),2) &amp; "],"</f>
         <v>'past_pct' : [-0.28,-0.17,0,0.28,0.28],</v>
       </c>
-      <c r="K12" s="7" t="str">
+      <c r="L12" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.text_pct[xx],df.projection_pct[xx],df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx]</v>
       </c>
-      <c r="L12" s="7" t="str">
+      <c r="M12" s="7" t="str">
         <f t="shared" si="3"/>
         <v>['text','projection','ruleset 2','ruleset 1','spreadsheet','decision table','past'</v>
       </c>
-      <c r="M12" s="7" t="str">
+      <c r="N12" s="7" t="str">
         <f t="shared" si="2"/>
         <v>[df.text[xx],df.projection[xx],df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx]</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -17404,22 +17707,22 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="7" t="str">
+      <c r="K13" s="7"/>
+      <c r="L13" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.text_pct[xx],df.projection_pct[xx],df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx]</v>
       </c>
-      <c r="L13" s="7" t="str">
+      <c r="M13" s="7" t="str">
         <f t="shared" si="3"/>
         <v>['text','projection','ruleset 2','ruleset 1','spreadsheet','decision table'</v>
       </c>
-      <c r="M13" s="7" t="str">
+      <c r="N13" s="7" t="str">
         <f t="shared" si="2"/>
         <v>[df.text[xx],df.projection[xx],df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx]</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>326</v>
       </c>
@@ -17445,28 +17748,31 @@
       <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="I14" s="7" t="str">
-        <f t="shared" ref="I14" si="9">"'"&amp;SUBSTITUTE(A14," ","_") &amp; "' : [" &amp; (F14*-1) &amp; "," &amp; (E14*-1) &amp; "," &amp;(D14*-1)&amp; "," &amp; G14 &amp; "," &amp; H14 &amp; "],"</f>
+      <c r="I14" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" ref="J14" si="9">"'"&amp;SUBSTITUTE(A14," ","_") &amp; "' : [" &amp; (F14*-1) &amp; "," &amp; (E14*-1) &amp; "," &amp;(D14*-1)&amp; "," &amp; G14 &amp; "," &amp; H14 &amp; "],"</f>
         <v>'decision_table' : [-4,-5,0,2,1],</v>
       </c>
-      <c r="J14" s="7" t="str">
+      <c r="K14" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A14," ","_")  &amp; "_pct' : [" &amp; ROUND(((F14/B14)*-1),2) &amp; "," &amp; ROUND(((E14/B14)*-1),2) &amp; "," &amp; ROUND(((D14/B14)*-1),2)  &amp; "," &amp; ROUND((G14/B14),2) &amp; "," &amp; ROUND((H14/B14),2) &amp; "],"</f>
         <v>'decision_table_pct' : [-0.33,-0.42,0,0.17,0.08],</v>
       </c>
-      <c r="K14" s="7" t="str">
+      <c r="L14" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.text_pct[xx],df.projection_pct[xx],df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx]</v>
       </c>
-      <c r="L14" s="7" t="str">
+      <c r="M14" s="7" t="str">
         <f t="shared" si="3"/>
         <v>['text','projection','ruleset 2','ruleset 1','spreadsheet','decision table'</v>
       </c>
-      <c r="M14" s="7" t="str">
+      <c r="N14" s="7" t="str">
         <f t="shared" si="2"/>
         <v>[df.text[xx],df.projection[xx],df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx]</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>327</v>
       </c>
@@ -17492,28 +17798,31 @@
       <c r="H15">
         <v>6</v>
       </c>
-      <c r="I15" s="7" t="str">
+      <c r="I15" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="J15" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A15," ","_") &amp; "' : [" &amp; (F15*-1) &amp; "," &amp; (E15*-1) &amp; "," &amp;(D15*-1)&amp; "," &amp; G15 &amp; "," &amp; H15 &amp; "],"</f>
         <v>'spreadsheet' : [-6,0,-1,5,6],</v>
       </c>
-      <c r="J15" s="7" t="str">
+      <c r="K15" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A15," ","_")  &amp; "_pct' : [" &amp; ROUND(((F15/B15)*-1),2) &amp; "," &amp; ROUND(((E15/B15)*-1),2) &amp; "," &amp; ROUND(((D15/B15)*-1),2)  &amp; "," &amp; ROUND((G15/B15),2) &amp; "," &amp; ROUND((H15/B15),2) &amp; "],"</f>
         <v>'spreadsheet_pct' : [-0.33,0,-0.06,0.28,0.33],</v>
       </c>
-      <c r="K15" s="7" t="str">
+      <c r="L15" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.text_pct[xx],df.projection_pct[xx],df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx]</v>
       </c>
-      <c r="L15" s="7" t="str">
+      <c r="M15" s="7" t="str">
         <f t="shared" si="3"/>
         <v>['text','projection','ruleset 2','ruleset 1','spreadsheet'</v>
       </c>
-      <c r="M15" s="7" t="str">
+      <c r="N15" s="7" t="str">
         <f t="shared" si="2"/>
         <v>[df.text[xx],df.projection[xx],df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx]</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D16" t="b">
         <f>SUM(D14:D15)=D$2</f>
         <v>1</v>
@@ -17534,20 +17843,20 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="K16" s="7" t="str">
+      <c r="L16" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.text_pct[xx],df.projection_pct[xx],df.ruleset_2_pct[xx],df.ruleset_1_pct[xx]</v>
       </c>
-      <c r="L16" s="7" t="str">
+      <c r="M16" s="7" t="str">
         <f t="shared" si="3"/>
         <v>['text','projection','ruleset 2','ruleset 1'</v>
       </c>
-      <c r="M16" s="7" t="str">
+      <c r="N16" s="7" t="str">
         <f t="shared" si="2"/>
         <v>[df.text[xx],df.projection[xx],df.ruleset_2[xx],df.ruleset_1[xx]</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>328</v>
       </c>
@@ -17573,28 +17882,31 @@
       <c r="H17">
         <v>3</v>
       </c>
-      <c r="I17" s="7" t="str">
-        <f t="shared" ref="I17" si="11">"'"&amp;SUBSTITUTE(A17," ","_") &amp; "' : [" &amp; (F17*-1) &amp; "," &amp; (E17*-1) &amp; "," &amp;(D17*-1)&amp; "," &amp; G17 &amp; "," &amp; H17 &amp; "],"</f>
+      <c r="I17" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="J17" s="7" t="str">
+        <f t="shared" ref="J17" si="11">"'"&amp;SUBSTITUTE(A17," ","_") &amp; "' : [" &amp; (F17*-1) &amp; "," &amp; (E17*-1) &amp; "," &amp;(D17*-1)&amp; "," &amp; G17 &amp; "," &amp; H17 &amp; "],"</f>
         <v>'ruleset_1' : [-6,-3,-1,5,3],</v>
       </c>
-      <c r="J17" s="7" t="str">
+      <c r="K17" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A17," ","_")  &amp; "_pct' : [" &amp; ROUND(((F17/B17)*-1),2) &amp; "," &amp; ROUND(((E17/B17)*-1),2) &amp; "," &amp; ROUND(((D17/B17)*-1),2)  &amp; "," &amp; ROUND((G17/B17),2) &amp; "," &amp; ROUND((H17/B17),2) &amp; "],"</f>
         <v>'ruleset_1_pct' : [-0.33,-0.17,-0.06,0.28,0.17],</v>
       </c>
-      <c r="K17" s="7" t="str">
+      <c r="L17" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.text_pct[xx],df.projection_pct[xx],df.ruleset_2_pct[xx],df.ruleset_1_pct[xx]</v>
       </c>
-      <c r="L17" s="7" t="str">
+      <c r="M17" s="7" t="str">
         <f t="shared" si="3"/>
         <v>['text','projection','ruleset 2','ruleset 1'</v>
       </c>
-      <c r="M17" s="7" t="str">
+      <c r="N17" s="7" t="str">
         <f t="shared" si="2"/>
         <v>[df.text[xx],df.projection[xx],df.ruleset_2[xx],df.ruleset_1[xx]</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>329</v>
       </c>
@@ -17620,28 +17932,31 @@
       <c r="H18">
         <v>4</v>
       </c>
-      <c r="I18" s="7" t="str">
+      <c r="I18" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="J18" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A18," ","_") &amp; "' : [" &amp; (F18*-1) &amp; "," &amp; (E18*-1) &amp; "," &amp;(D18*-1)&amp; "," &amp; G18 &amp; "," &amp; H18 &amp; "],"</f>
         <v>'ruleset_2' : [-4,-2,0,2,4],</v>
       </c>
-      <c r="J18" s="7" t="str">
+      <c r="K18" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A18," ","_")  &amp; "_pct' : [" &amp; ROUND(((F18/B18)*-1),2) &amp; "," &amp; ROUND(((E18/B18)*-1),2) &amp; "," &amp; ROUND(((D18/B18)*-1),2)  &amp; "," &amp; ROUND((G18/B18),2) &amp; "," &amp; ROUND((H18/B18),2) &amp; "],"</f>
         <v>'ruleset_2_pct' : [-0.33,-0.17,0,0.17,0.33],</v>
       </c>
-      <c r="K18" s="7" t="str">
+      <c r="L18" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.text_pct[xx],df.projection_pct[xx],df.ruleset_2_pct[xx]</v>
       </c>
-      <c r="L18" s="7" t="str">
+      <c r="M18" s="7" t="str">
         <f t="shared" si="3"/>
         <v>['text','projection','ruleset 2'</v>
       </c>
-      <c r="M18" s="7" t="str">
+      <c r="N18" s="7" t="str">
         <f t="shared" si="2"/>
         <v>[df.text[xx],df.projection[xx],df.ruleset_2[xx]</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="b">
         <f>SUM(D17:D18)=D$2</f>
@@ -17663,20 +17978,20 @@
         <f t="shared" ref="H19" si="15">SUM(H17:H18)=H$2</f>
         <v>1</v>
       </c>
-      <c r="K19" s="7" t="str">
+      <c r="L19" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.text_pct[xx],df.projection_pct[xx]</v>
       </c>
-      <c r="L19" s="7" t="str">
+      <c r="M19" s="7" t="str">
         <f t="shared" si="3"/>
         <v>['text','projection'</v>
       </c>
-      <c r="M19" s="7" t="str">
+      <c r="N19" s="7" t="str">
         <f t="shared" si="2"/>
         <v>[df.text[xx],df.projection[xx]</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>297</v>
       </c>
@@ -17702,28 +18017,31 @@
       <c r="H20" s="7">
         <v>3</v>
       </c>
-      <c r="I20" s="7" t="str">
-        <f t="shared" ref="I20" si="16">"'"&amp;SUBSTITUTE(A20," ","_") &amp; "' : [" &amp; (F20*-1) &amp; "," &amp; (E20*-1) &amp; "," &amp;(D20*-1)&amp; "," &amp; G20 &amp; "," &amp; H20 &amp; "],"</f>
+      <c r="I20" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="J20" s="7" t="str">
+        <f t="shared" ref="J20" si="16">"'"&amp;SUBSTITUTE(A20," ","_") &amp; "' : [" &amp; (F20*-1) &amp; "," &amp; (E20*-1) &amp; "," &amp;(D20*-1)&amp; "," &amp; G20 &amp; "," &amp; H20 &amp; "],"</f>
         <v>'projection' : [-6,-3,0,2,3],</v>
       </c>
-      <c r="J20" s="7" t="str">
+      <c r="K20" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A20," ","_")  &amp; "_pct' : [" &amp; ROUND(((F20/B20)*-1),2) &amp; "," &amp; ROUND(((E20/B20)*-1),2) &amp; "," &amp; ROUND(((D20/B20)*-1),2)  &amp; "," &amp; ROUND((G20/B20),2) &amp; "," &amp; ROUND((H20/B20),2) &amp; "],"</f>
         <v>'projection_pct' : [-0.43,-0.21,0,0.14,0.21],</v>
       </c>
-      <c r="K20" s="7" t="str">
+      <c r="L20" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.text_pct[xx],df.projection_pct[xx]</v>
       </c>
-      <c r="L20" s="7" t="str">
+      <c r="M20" s="7" t="str">
         <f t="shared" si="3"/>
         <v>['text','projection'</v>
       </c>
-      <c r="M20" t="str">
+      <c r="N20" t="str">
         <f t="shared" si="2"/>
         <v>[df.text[xx],df.projection[xx]</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>334</v>
       </c>
@@ -17749,28 +18067,31 @@
       <c r="H21" s="7">
         <v>4</v>
       </c>
-      <c r="I21" s="7" t="str">
+      <c r="I21" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="J21" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A21," ","_") &amp; "' : [" &amp; (F21*-1) &amp; "," &amp; (E21*-1) &amp; "," &amp;(D21*-1)&amp; "," &amp; G21 &amp; "," &amp; H21 &amp; "],"</f>
         <v>'text' : [-4,-2,-1,5,4],</v>
       </c>
-      <c r="J21" s="7" t="str">
+      <c r="K21" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A21," ","_")  &amp; "_pct' : [" &amp; ROUND(((F21/B21)*-1),2) &amp; "," &amp; ROUND(((E21/B21)*-1),2) &amp; "," &amp; ROUND(((D21/B21)*-1),2)  &amp; "," &amp; ROUND((G21/B21),2) &amp; "," &amp; ROUND((H21/B21),2) &amp; "],"</f>
         <v>'text_pct' : [-0.25,-0.13,-0.06,0.31,0.25],</v>
       </c>
-      <c r="K21" t="str">
+      <c r="L21" t="str">
         <f>"[df."&amp; SUBSTITUTE(A21," ","_") &amp;"_pct[xx]"</f>
         <v>[df.text_pct[xx]</v>
       </c>
-      <c r="L21" t="str">
+      <c r="M21" t="str">
         <f>"['"&amp; A21 &amp;"'"</f>
         <v>['text'</v>
       </c>
-      <c r="M21" t="str">
+      <c r="N21" t="str">
         <f>"[df."&amp; SUBSTITUTE(A21," ","_") &amp;"[xx]"</f>
         <v>[df.text[xx]</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D22" s="7" t="b">
         <f>SUM(D20:D21)=D$2</f>
         <v>1</v>
@@ -17799,18 +18120,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D893DAA-EFB1-4118-8F7B-F1D73DB3BFF6}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="10" width="35.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="7"/>
       <c r="B1" s="7" t="s">
         <v>315</v>
@@ -17833,10 +18155,11 @@
       <c r="H1" s="1">
         <v>5</v>
       </c>
-      <c r="I1" s="7"/>
+      <c r="I1" s="1"/>
       <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>311</v>
       </c>
@@ -17862,28 +18185,32 @@
       <c r="H2" s="7">
         <v>5</v>
       </c>
-      <c r="I2" s="7" t="str">
+      <c r="I2" s="7">
+        <f>(G2+H2)/(D2+E2)</f>
+        <v>5.5</v>
+      </c>
+      <c r="J2" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A2," ","_") &amp; "' : [" &amp; (F2*-1) &amp; "," &amp; (E2*-1) &amp; "," &amp;(D2*-1)&amp; "," &amp; G2 &amp; "," &amp; H2 &amp; "],"</f>
         <v>'total' : [-5,-1,-1,6,5],</v>
       </c>
-      <c r="J2" s="7" t="str">
+      <c r="K2" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A2," ","_")  &amp; "_pct' : [" &amp; ROUND(((F2/B2)*-1),2) &amp; "," &amp; ROUND(((E2/B2)*-1),2) &amp; "," &amp; ROUND(((D2/B2)*-1),2)  &amp; "," &amp; ROUND((G2/B2),2) &amp; "," &amp; ROUND((H2/B2),2) &amp; "],"</f>
         <v>'total_pct' : [-0.28,-0.06,-0.06,0.33,0.28],</v>
       </c>
-      <c r="K2" s="7" t="str">
-        <f>IF(ISBLANK(A2),K3,K3&amp;",df."&amp; SUBSTITUTE(A2," ","_") &amp;"_pct[xx]]")</f>
+      <c r="L2" s="7" t="str">
+        <f>IF(ISBLANK(A2),L3,L3&amp;",df."&amp; SUBSTITUTE(A2," ","_") &amp;"_pct[xx]]")</f>
         <v>[df.text_pct[xx],df.projection_pct[xx],df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx],df.practicioner_pct[xx],df.academic_pct[xx],df.total_pct[xx]]</v>
       </c>
-      <c r="L2" s="7" t="str">
-        <f>IF(ISBLANK(A2),L3,L3&amp;",'"&amp; A2 &amp;"']")</f>
+      <c r="M2" s="7" t="str">
+        <f>IF(ISBLANK(A2),M3,M3&amp;",'"&amp; A2 &amp;"']")</f>
         <v>['text','projection','ruleset 2','ruleset 1','past','current','novice','senior','expert','practicioner','academic','total']</v>
       </c>
-      <c r="M2" s="7" t="str">
-        <f>IF(ISBLANK(A2),M3,M3&amp;",df."&amp; SUBSTITUTE(A2," ","_") &amp;"[xx]]")</f>
+      <c r="N2" s="7" t="str">
+        <f>IF(ISBLANK(A2),N3,N3&amp;",df."&amp; SUBSTITUTE(A2," ","_") &amp;"[xx]]")</f>
         <v>[df.text[xx],df.projection[xx],df.ruleset_2[xx],df.ruleset_1[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx],df.practicioner[xx],df.academic[xx],df.total[xx]]</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -17892,22 +18219,22 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="7" t="str">
-        <f t="shared" ref="K3:K16" si="1">IF(ISBLANK(A3),K4,K4&amp;",df."&amp; SUBSTITUTE(A3," ","_") &amp;"_pct[xx]")</f>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7" t="str">
+        <f t="shared" ref="L3:L16" si="1">IF(ISBLANK(A3),L4,L4&amp;",df."&amp; SUBSTITUTE(A3," ","_") &amp;"_pct[xx]")</f>
         <v>[df.text_pct[xx],df.projection_pct[xx],df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx],df.practicioner_pct[xx],df.academic_pct[xx]</v>
       </c>
-      <c r="L3" s="7" t="str">
-        <f>IF(ISBLANK(A3),L4,L4&amp;",'"&amp; A3 &amp;"'")</f>
+      <c r="M3" s="7" t="str">
+        <f>IF(ISBLANK(A3),M4,M4&amp;",'"&amp; A3 &amp;"'")</f>
         <v>['text','projection','ruleset 2','ruleset 1','past','current','novice','senior','expert','practicioner','academic'</v>
       </c>
-      <c r="M3" s="7" t="str">
-        <f t="shared" ref="M3:M16" si="2">IF(ISBLANK(A3),M4,M4&amp;",df."&amp; SUBSTITUTE(A3," ","_") &amp;"[xx]")</f>
+      <c r="N3" s="7" t="str">
+        <f t="shared" ref="N3:N16" si="2">IF(ISBLANK(A3),N4,N4&amp;",df."&amp; SUBSTITUTE(A3," ","_") &amp;"[xx]")</f>
         <v>[df.text[xx],df.projection[xx],df.ruleset_2[xx],df.ruleset_1[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx],df.practicioner[xx],df.academic[xx]</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>312</v>
       </c>
@@ -17933,28 +18260,31 @@
       <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="I4" s="7" t="str">
+      <c r="I4" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="J4" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A4," ","_") &amp; "' : [" &amp; (F4*-1) &amp; "," &amp; (E4*-1) &amp; "," &amp;(D4*-1)&amp; "," &amp; G4 &amp; "," &amp; H4 &amp; "],"</f>
         <v>'academic' : [-3,-1,0,2,2],</v>
       </c>
-      <c r="J4" s="7" t="str">
+      <c r="K4" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A4," ","_")  &amp; "_pct' : [" &amp; ROUND(((F4/B4)*-1),2) &amp; "," &amp; ROUND(((E4/B4)*-1),2) &amp; "," &amp; ROUND(((D4/B4)*-1),2)  &amp; "," &amp; ROUND((G4/B4),2) &amp; "," &amp; ROUND((H4/B4),2) &amp; "],"</f>
         <v>'academic_pct' : [-0.38,-0.13,0,0.25,0.25],</v>
       </c>
-      <c r="K4" s="7" t="str">
+      <c r="L4" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.text_pct[xx],df.projection_pct[xx],df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx],df.practicioner_pct[xx],df.academic_pct[xx]</v>
       </c>
-      <c r="L4" s="7" t="str">
-        <f t="shared" ref="L4:L17" si="3">IF(ISBLANK(A4),L5,L5&amp;",'"&amp; A4 &amp;"'")</f>
+      <c r="M4" s="7" t="str">
+        <f t="shared" ref="M4:M17" si="3">IF(ISBLANK(A4),M5,M5&amp;",'"&amp; A4 &amp;"'")</f>
         <v>['text','projection','ruleset 2','ruleset 1','past','current','novice','senior','expert','practicioner','academic'</v>
       </c>
-      <c r="M4" s="7" t="str">
+      <c r="N4" s="7" t="str">
         <f t="shared" si="2"/>
         <v>[df.text[xx],df.projection[xx],df.ruleset_2[xx],df.ruleset_1[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx],df.practicioner[xx],df.academic[xx]</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>313</v>
       </c>
@@ -17980,28 +18310,31 @@
       <c r="H5" s="7">
         <v>3</v>
       </c>
-      <c r="I5" s="7" t="str">
+      <c r="I5" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="J5" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A5," ","_") &amp; "' : [" &amp; (F5*-1) &amp; "," &amp; (E5*-1) &amp; "," &amp;(D5*-1)&amp; "," &amp; G5 &amp; "," &amp; H5 &amp; "],"</f>
         <v>'practicioner' : [-2,0,-1,4,3],</v>
       </c>
-      <c r="J5" s="7" t="str">
+      <c r="K5" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A5," ","_")  &amp; "_pct' : [" &amp; ROUND(((F5/B5)*-1),2) &amp; "," &amp; ROUND(((E5/B5)*-1),2) &amp; "," &amp; ROUND(((D5/B5)*-1),2)  &amp; "," &amp; ROUND((G5/B5),2) &amp; "," &amp; ROUND((H5/B5),2) &amp; "],"</f>
         <v>'practicioner_pct' : [-0.2,0,-0.1,0.4,0.3],</v>
       </c>
-      <c r="K5" s="7" t="str">
+      <c r="L5" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.text_pct[xx],df.projection_pct[xx],df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx],df.practicioner_pct[xx]</v>
       </c>
-      <c r="L5" s="7" t="str">
+      <c r="M5" s="7" t="str">
         <f t="shared" si="3"/>
         <v>['text','projection','ruleset 2','ruleset 1','past','current','novice','senior','expert','practicioner'</v>
       </c>
-      <c r="M5" s="7" t="str">
+      <c r="N5" s="7" t="str">
         <f t="shared" si="2"/>
         <v>[df.text[xx],df.projection[xx],df.ruleset_2[xx],df.ruleset_1[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx],df.practicioner[xx]</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -18025,22 +18358,22 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="7" t="str">
+      <c r="K6" s="7"/>
+      <c r="L6" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.text_pct[xx],df.projection_pct[xx],df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx]</v>
       </c>
-      <c r="L6" s="7" t="str">
+      <c r="M6" s="7" t="str">
         <f t="shared" si="3"/>
         <v>['text','projection','ruleset 2','ruleset 1','past','current','novice','senior','expert'</v>
       </c>
-      <c r="M6" s="7" t="str">
+      <c r="N6" s="7" t="str">
         <f t="shared" si="2"/>
         <v>[df.text[xx],df.projection[xx],df.ruleset_2[xx],df.ruleset_1[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx]</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>317</v>
       </c>
@@ -18066,28 +18399,31 @@
       <c r="H7" s="7">
         <v>3</v>
       </c>
-      <c r="I7" s="7" t="str">
-        <f t="shared" ref="I7" si="5">"'"&amp;SUBSTITUTE(A7," ","_") &amp; "' : [" &amp; (F7*-1) &amp; "," &amp; (E7*-1) &amp; "," &amp;(D7*-1)&amp; "," &amp; G7 &amp; "," &amp; H7 &amp; "],"</f>
+      <c r="I7" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f t="shared" ref="J7" si="5">"'"&amp;SUBSTITUTE(A7," ","_") &amp; "' : [" &amp; (F7*-1) &amp; "," &amp; (E7*-1) &amp; "," &amp;(D7*-1)&amp; "," &amp; G7 &amp; "," &amp; H7 &amp; "],"</f>
         <v>'expert' : [-1,0,-1,1,3],</v>
       </c>
-      <c r="J7" s="7" t="str">
+      <c r="K7" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A7," ","_")  &amp; "_pct' : [" &amp; ROUND(((F7/B7)*-1),2) &amp; "," &amp; ROUND(((E7/B7)*-1),2) &amp; "," &amp; ROUND(((D7/B7)*-1),2)  &amp; "," &amp; ROUND((G7/B7),2) &amp; "," &amp; ROUND((H7/B7),2) &amp; "],"</f>
         <v>'expert_pct' : [-0.17,0,-0.17,0.17,0.5],</v>
       </c>
-      <c r="K7" s="7" t="str">
+      <c r="L7" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.text_pct[xx],df.projection_pct[xx],df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx]</v>
       </c>
-      <c r="L7" s="7" t="str">
+      <c r="M7" s="7" t="str">
         <f t="shared" si="3"/>
         <v>['text','projection','ruleset 2','ruleset 1','past','current','novice','senior','expert'</v>
       </c>
-      <c r="M7" s="7" t="str">
+      <c r="N7" s="7" t="str">
         <f t="shared" si="2"/>
         <v>[df.text[xx],df.projection[xx],df.ruleset_2[xx],df.ruleset_1[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx]</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>318</v>
       </c>
@@ -18113,28 +18449,31 @@
       <c r="H8" s="7">
         <v>2</v>
       </c>
-      <c r="I8" s="7" t="str">
+      <c r="I8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J8" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A8," ","_") &amp; "' : [" &amp; (F8*-1) &amp; "," &amp; (E8*-1) &amp; "," &amp;(D8*-1)&amp; "," &amp; G8 &amp; "," &amp; H8 &amp; "],"</f>
         <v>'senior' : [-2,-1,0,3,2],</v>
       </c>
-      <c r="J8" s="7" t="str">
+      <c r="K8" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A8," ","_")  &amp; "_pct' : [" &amp; ROUND(((F8/B8)*-1),2) &amp; "," &amp; ROUND(((E8/B8)*-1),2) &amp; "," &amp; ROUND(((D8/B8)*-1),2)  &amp; "," &amp; ROUND((G8/B8),2) &amp; "," &amp; ROUND((H8/B8),2) &amp; "],"</f>
         <v>'senior_pct' : [-0.25,-0.13,0,0.38,0.25],</v>
       </c>
-      <c r="K8" s="7" t="str">
+      <c r="L8" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.text_pct[xx],df.projection_pct[xx],df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx]</v>
       </c>
-      <c r="L8" s="7" t="str">
+      <c r="M8" s="7" t="str">
         <f t="shared" si="3"/>
         <v>['text','projection','ruleset 2','ruleset 1','past','current','novice','senior'</v>
       </c>
-      <c r="M8" s="7" t="str">
+      <c r="N8" s="7" t="str">
         <f t="shared" si="2"/>
         <v>[df.text[xx],df.projection[xx],df.ruleset_2[xx],df.ruleset_1[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx]</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>319</v>
       </c>
@@ -18160,28 +18499,28 @@
       <c r="H9" s="7">
         <v>0</v>
       </c>
-      <c r="I9" s="7" t="str">
+      <c r="J9" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A9," ","_") &amp; "' : [" &amp; (F9*-1) &amp; "," &amp; (E9*-1) &amp; "," &amp;(D9*-1)&amp; "," &amp; G9 &amp; "," &amp; H9 &amp; "],"</f>
         <v>'novice' : [-2,0,0,2,0],</v>
       </c>
-      <c r="J9" s="7" t="str">
+      <c r="K9" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A9," ","_")  &amp; "_pct' : [" &amp; ROUND(((F9/B9)*-1),2) &amp; "," &amp; ROUND(((E9/B9)*-1),2) &amp; "," &amp; ROUND(((D9/B9)*-1),2)  &amp; "," &amp; ROUND((G9/B9),2) &amp; "," &amp; ROUND((H9/B9),2) &amp; "],"</f>
         <v>'novice_pct' : [-0.5,0,0,0.5,0],</v>
       </c>
-      <c r="K9" s="7" t="str">
+      <c r="L9" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.text_pct[xx],df.projection_pct[xx],df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx]</v>
       </c>
-      <c r="L9" s="7" t="str">
+      <c r="M9" s="7" t="str">
         <f t="shared" si="3"/>
         <v>['text','projection','ruleset 2','ruleset 1','past','current','novice'</v>
       </c>
-      <c r="M9" s="7" t="str">
+      <c r="N9" s="7" t="str">
         <f t="shared" si="2"/>
         <v>[df.text[xx],df.projection[xx],df.ruleset_2[xx],df.ruleset_1[xx],df.past[xx],df.current[xx],df.novice[xx]</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -18205,22 +18544,22 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="7" t="str">
+      <c r="K10" s="7"/>
+      <c r="L10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.text_pct[xx],df.projection_pct[xx],df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.past_pct[xx],df.current_pct[xx]</v>
       </c>
-      <c r="L10" s="7" t="str">
+      <c r="M10" s="7" t="str">
         <f t="shared" si="3"/>
         <v>['text','projection','ruleset 2','ruleset 1','past','current'</v>
       </c>
-      <c r="M10" s="7" t="str">
+      <c r="N10" s="7" t="str">
         <f t="shared" si="2"/>
         <v>[df.text[xx],df.projection[xx],df.ruleset_2[xx],df.ruleset_1[xx],df.past[xx],df.current[xx]</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>320</v>
       </c>
@@ -18246,28 +18585,31 @@
       <c r="H11" s="7">
         <v>2</v>
       </c>
-      <c r="I11" s="7" t="str">
-        <f t="shared" ref="I11" si="7">"'"&amp;SUBSTITUTE(A11," ","_") &amp; "' : [" &amp; (F11*-1) &amp; "," &amp; (E11*-1) &amp; "," &amp;(D11*-1)&amp; "," &amp; G11 &amp; "," &amp; H11 &amp; "],"</f>
+      <c r="I11" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f t="shared" ref="J11" si="7">"'"&amp;SUBSTITUTE(A11," ","_") &amp; "' : [" &amp; (F11*-1) &amp; "," &amp; (E11*-1) &amp; "," &amp;(D11*-1)&amp; "," &amp; G11 &amp; "," &amp; H11 &amp; "],"</f>
         <v>'current' : [-1,0,-1,1,2],</v>
       </c>
-      <c r="J11" s="7" t="str">
+      <c r="K11" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A11," ","_")  &amp; "_pct' : [" &amp; ROUND(((F11/B11)*-1),2) &amp; "," &amp; ROUND(((E11/B11)*-1),2) &amp; "," &amp; ROUND(((D11/B11)*-1),2)  &amp; "," &amp; ROUND((G11/B11),2) &amp; "," &amp; ROUND((H11/B11),2) &amp; "],"</f>
         <v>'current_pct' : [-0.2,0,-0.2,0.2,0.4],</v>
       </c>
-      <c r="K11" s="7" t="str">
+      <c r="L11" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.text_pct[xx],df.projection_pct[xx],df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.past_pct[xx],df.current_pct[xx]</v>
       </c>
-      <c r="L11" s="7" t="str">
+      <c r="M11" s="7" t="str">
         <f t="shared" si="3"/>
         <v>['text','projection','ruleset 2','ruleset 1','past','current'</v>
       </c>
-      <c r="M11" s="7" t="str">
+      <c r="N11" s="7" t="str">
         <f t="shared" si="2"/>
         <v>[df.text[xx],df.projection[xx],df.ruleset_2[xx],df.ruleset_1[xx],df.past[xx],df.current[xx]</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>321</v>
       </c>
@@ -18293,28 +18635,31 @@
       <c r="H12" s="7">
         <v>3</v>
       </c>
-      <c r="I12" s="7" t="str">
+      <c r="I12" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="J12" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A12," ","_") &amp; "' : [" &amp; (F12*-1) &amp; "," &amp; (E12*-1) &amp; "," &amp;(D12*-1)&amp; "," &amp; G12 &amp; "," &amp; H12 &amp; "],"</f>
         <v>'past' : [-4,-1,0,5,3],</v>
       </c>
-      <c r="J12" s="7" t="str">
+      <c r="K12" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A12," ","_")  &amp; "_pct' : [" &amp; ROUND(((F12/B12)*-1),2) &amp; "," &amp; ROUND(((E12/B12)*-1),2) &amp; "," &amp; ROUND(((D12/B12)*-1),2)  &amp; "," &amp; ROUND((G12/B12),2) &amp; "," &amp; ROUND((H12/B12),2) &amp; "],"</f>
         <v>'past_pct' : [-0.31,-0.08,0,0.38,0.23],</v>
       </c>
-      <c r="K12" s="7" t="str">
+      <c r="L12" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.text_pct[xx],df.projection_pct[xx],df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.past_pct[xx]</v>
       </c>
-      <c r="L12" s="7" t="str">
+      <c r="M12" s="7" t="str">
         <f t="shared" si="3"/>
         <v>['text','projection','ruleset 2','ruleset 1','past'</v>
       </c>
-      <c r="M12" s="7" t="str">
+      <c r="N12" s="7" t="str">
         <f t="shared" si="2"/>
         <v>[df.text[xx],df.projection[xx],df.ruleset_2[xx],df.ruleset_1[xx],df.past[xx]</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -18338,22 +18683,22 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="7" t="str">
+      <c r="K13" s="7"/>
+      <c r="L13" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.text_pct[xx],df.projection_pct[xx],df.ruleset_2_pct[xx],df.ruleset_1_pct[xx]</v>
       </c>
-      <c r="L13" s="7" t="str">
+      <c r="M13" s="7" t="str">
         <f t="shared" si="3"/>
         <v>['text','projection','ruleset 2','ruleset 1'</v>
       </c>
-      <c r="M13" s="7" t="str">
+      <c r="N13" s="7" t="str">
         <f t="shared" si="2"/>
         <v>[df.text[xx],df.projection[xx],df.ruleset_2[xx],df.ruleset_1[xx]</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>328</v>
       </c>
@@ -18379,28 +18724,31 @@
       <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="I14" s="7" t="str">
-        <f t="shared" ref="I14" si="9">"'"&amp;SUBSTITUTE(A14," ","_") &amp; "' : [" &amp; (F14*-1) &amp; "," &amp; (E14*-1) &amp; "," &amp;(D14*-1)&amp; "," &amp; G14 &amp; "," &amp; H14 &amp; "],"</f>
+      <c r="I14" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" ref="J14" si="9">"'"&amp;SUBSTITUTE(A14," ","_") &amp; "' : [" &amp; (F14*-1) &amp; "," &amp; (E14*-1) &amp; "," &amp;(D14*-1)&amp; "," &amp; G14 &amp; "," &amp; H14 &amp; "],"</f>
         <v>'ruleset_1' : [-4,-1,0,3,1],</v>
       </c>
-      <c r="J14" s="7" t="str">
+      <c r="K14" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A14," ","_")  &amp; "_pct' : [" &amp; ROUND(((F14/B14)*-1),2) &amp; "," &amp; ROUND(((E14/B14)*-1),2) &amp; "," &amp; ROUND(((D14/B14)*-1),2)  &amp; "," &amp; ROUND((G14/B14),2) &amp; "," &amp; ROUND((H14/B14),2) &amp; "],"</f>
         <v>'ruleset_1_pct' : [-0.44,-0.11,0,0.33,0.11],</v>
       </c>
-      <c r="K14" s="7" t="str">
+      <c r="L14" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.text_pct[xx],df.projection_pct[xx],df.ruleset_2_pct[xx],df.ruleset_1_pct[xx]</v>
       </c>
-      <c r="L14" s="7" t="str">
+      <c r="M14" s="7" t="str">
         <f t="shared" si="3"/>
         <v>['text','projection','ruleset 2','ruleset 1'</v>
       </c>
-      <c r="M14" s="7" t="str">
+      <c r="N14" s="7" t="str">
         <f t="shared" si="2"/>
         <v>[df.text[xx],df.projection[xx],df.ruleset_2[xx],df.ruleset_1[xx]</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>329</v>
       </c>
@@ -18426,28 +18774,31 @@
       <c r="H15" s="7">
         <v>4</v>
       </c>
-      <c r="I15" s="7" t="str">
+      <c r="I15" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="J15" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A15," ","_") &amp; "' : [" &amp; (F15*-1) &amp; "," &amp; (E15*-1) &amp; "," &amp;(D15*-1)&amp; "," &amp; G15 &amp; "," &amp; H15 &amp; "],"</f>
         <v>'ruleset_2' : [-1,0,-1,3,4],</v>
       </c>
-      <c r="J15" s="7" t="str">
+      <c r="K15" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A15," ","_")  &amp; "_pct' : [" &amp; ROUND(((F15/B15)*-1),2) &amp; "," &amp; ROUND(((E15/B15)*-1),2) &amp; "," &amp; ROUND(((D15/B15)*-1),2)  &amp; "," &amp; ROUND((G15/B15),2) &amp; "," &amp; ROUND((H15/B15),2) &amp; "],"</f>
         <v>'ruleset_2_pct' : [-0.11,0,-0.11,0.33,0.44],</v>
       </c>
-      <c r="K15" s="7" t="str">
+      <c r="L15" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.text_pct[xx],df.projection_pct[xx],df.ruleset_2_pct[xx]</v>
       </c>
-      <c r="L15" s="7" t="str">
+      <c r="M15" s="7" t="str">
         <f t="shared" si="3"/>
         <v>['text','projection','ruleset 2'</v>
       </c>
-      <c r="M15" s="7" t="str">
+      <c r="N15" s="7" t="str">
         <f t="shared" si="2"/>
         <v>[df.text[xx],df.projection[xx],df.ruleset_2[xx]</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -18471,22 +18822,22 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="7" t="str">
+      <c r="K16" s="7"/>
+      <c r="L16" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.text_pct[xx],df.projection_pct[xx]</v>
       </c>
-      <c r="L16" s="7" t="str">
+      <c r="M16" s="7" t="str">
         <f t="shared" si="3"/>
         <v>['text','projection'</v>
       </c>
-      <c r="M16" s="7" t="str">
+      <c r="N16" s="7" t="str">
         <f t="shared" si="2"/>
         <v>[df.text[xx],df.projection[xx]</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>297</v>
       </c>
@@ -18512,28 +18863,31 @@
       <c r="H17" s="7">
         <v>3</v>
       </c>
-      <c r="I17" s="7" t="str">
-        <f t="shared" ref="I17" si="11">"'"&amp;SUBSTITUTE(A17," ","_") &amp; "' : [" &amp; (F17*-1) &amp; "," &amp; (E17*-1) &amp; "," &amp;(D17*-1)&amp; "," &amp; G17 &amp; "," &amp; H17 &amp; "],"</f>
+      <c r="I17" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="J17" s="7" t="str">
+        <f t="shared" ref="J17" si="11">"'"&amp;SUBSTITUTE(A17," ","_") &amp; "' : [" &amp; (F17*-1) &amp; "," &amp; (E17*-1) &amp; "," &amp;(D17*-1)&amp; "," &amp; G17 &amp; "," &amp; H17 &amp; "],"</f>
         <v>'projection' : [-5,-1,0,5,3],</v>
       </c>
-      <c r="J17" s="7" t="str">
+      <c r="K17" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A17," ","_")  &amp; "_pct' : [" &amp; ROUND(((F17/B17)*-1),2) &amp; "," &amp; ROUND(((E17/B17)*-1),2) &amp; "," &amp; ROUND(((D17/B17)*-1),2)  &amp; "," &amp; ROUND((G17/B17),2) &amp; "," &amp; ROUND((H17/B17),2) &amp; "],"</f>
         <v>'projection_pct' : [-0.36,-0.07,0,0.36,0.21],</v>
       </c>
-      <c r="K17" s="7" t="str">
-        <f>IF(ISBLANK(A17),K18,K18&amp;",df."&amp; SUBSTITUTE(A17," ","_") &amp;"_pct[xx]")</f>
+      <c r="L17" s="7" t="str">
+        <f>IF(ISBLANK(A17),L18,L18&amp;",df."&amp; SUBSTITUTE(A17," ","_") &amp;"_pct[xx]")</f>
         <v>[df.text_pct[xx],df.projection_pct[xx]</v>
       </c>
-      <c r="L17" s="7" t="str">
+      <c r="M17" s="7" t="str">
         <f t="shared" si="3"/>
         <v>['text','projection'</v>
       </c>
-      <c r="M17" s="7" t="str">
-        <f>IF(ISBLANK(A17),M18,M18&amp;",df."&amp; SUBSTITUTE(A17," ","_") &amp;"[xx]")</f>
+      <c r="N17" s="7" t="str">
+        <f>IF(ISBLANK(A17),N18,N18&amp;",df."&amp; SUBSTITUTE(A17," ","_") &amp;"[xx]")</f>
         <v>[df.text[xx],df.projection[xx]</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>334</v>
       </c>
@@ -18559,28 +18913,31 @@
       <c r="H18" s="7">
         <v>2</v>
       </c>
-      <c r="I18" s="7" t="str">
+      <c r="I18" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="J18" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A18," ","_") &amp; "' : [" &amp; (F18*-1) &amp; "," &amp; (E18*-1) &amp; "," &amp;(D18*-1)&amp; "," &amp; G18 &amp; "," &amp; H18 &amp; "],"</f>
         <v>'text' : [0,0,-1,1,2],</v>
       </c>
-      <c r="J18" s="7" t="str">
+      <c r="K18" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A18," ","_")  &amp; "_pct' : [" &amp; ROUND(((F18/B18)*-1),2) &amp; "," &amp; ROUND(((E18/B18)*-1),2) &amp; "," &amp; ROUND(((D18/B18)*-1),2)  &amp; "," &amp; ROUND((G18/B18),2) &amp; "," &amp; ROUND((H18/B18),2) &amp; "],"</f>
         <v>'text_pct' : [0,0,-0.25,0.25,0.5],</v>
       </c>
-      <c r="K18" s="7" t="str">
+      <c r="L18" s="7" t="str">
         <f>"[df."&amp; SUBSTITUTE(A18," ","_") &amp;"_pct[xx]"</f>
         <v>[df.text_pct[xx]</v>
       </c>
-      <c r="L18" s="7" t="str">
+      <c r="M18" s="7" t="str">
         <f>"['"&amp; A18&amp;"'"</f>
         <v>['text'</v>
       </c>
-      <c r="M18" s="7" t="str">
+      <c r="N18" s="7" t="str">
         <f>"[df."&amp; SUBSTITUTE(A18," ","_") &amp;"[xx]"</f>
         <v>[df.text[xx]</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -18604,16 +18961,16 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="I20" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="I21" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18622,10 +18979,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2189D71-B2C2-470B-B11E-70CE459BF187}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18634,11 +18991,12 @@
     <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="7.453125" customWidth="1"/>
-    <col min="9" max="9" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="7"/>
       <c r="B1" s="7" t="s">
         <v>315</v>
@@ -18661,11 +19019,12 @@
       <c r="H1" s="1">
         <v>5</v>
       </c>
-      <c r="I1" s="7"/>
+      <c r="I1" s="1"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>311</v>
       </c>
@@ -18691,28 +19050,28 @@
       <c r="H2" s="7">
         <v>1</v>
       </c>
-      <c r="I2" s="7" t="str">
+      <c r="J2" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A2," ","_") &amp; "' : [" &amp; (F2*-1) &amp; "," &amp; (E2*-1) &amp; "," &amp;(D2*-1)&amp; "," &amp; G2 &amp; "," &amp; H2 &amp; "],"</f>
         <v>'total' : [-3,-7,-4,15,1],</v>
       </c>
-      <c r="J2" s="7" t="str">
+      <c r="K2" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A2," ","_")  &amp; "_pct' : [" &amp; ROUND(((F2/B2)*-1),2) &amp; "," &amp; ROUND(((E2/B2)*-1),2) &amp; "," &amp; ROUND(((D2/B2)*-1),2)  &amp; "," &amp; ROUND((G2/B2),2) &amp; "," &amp; ROUND((H2/B2),2) &amp; "],"</f>
         <v>'total_pct' : [-0.1,-0.23,-0.13,0.5,0.03],</v>
       </c>
-      <c r="K2" s="7" t="str">
-        <f>IF(ISBLANK(A2),K3,K3&amp;",df."&amp; SUBSTITUTE(A2," ","_") &amp;"_pct[xx]]")</f>
+      <c r="L2" s="7" t="str">
+        <f>IF(ISBLANK(A2),L3,L3&amp;",df."&amp; SUBSTITUTE(A2," ","_") &amp;"_pct[xx]]")</f>
         <v>[df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx],df.practicioner_pct[xx],df.academic_pct[xx],df.total_pct[xx]]</v>
       </c>
-      <c r="L2" s="7" t="str">
-        <f>IF(ISBLANK(A2),L3,L3&amp;",'"&amp; A2 &amp;"']")</f>
+      <c r="M2" s="7" t="str">
+        <f>IF(ISBLANK(A2),M3,M3&amp;",'"&amp; A2 &amp;"']")</f>
         <v>['ruleset 2','ruleset 1','spreadsheet','decision table','past','current','novice','senior','expert','practicioner','academic','total']</v>
       </c>
-      <c r="M2" s="7" t="str">
-        <f>IF(ISBLANK(A2),M3,M3&amp;",df."&amp; SUBSTITUTE(A2," ","_") &amp;"[xx]]")</f>
+      <c r="N2" s="7" t="str">
+        <f>IF(ISBLANK(A2),N3,N3&amp;",df."&amp; SUBSTITUTE(A2," ","_") &amp;"[xx]]")</f>
         <v>[df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx],df.practicioner[xx],df.academic[xx],df.total[xx]]</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -18721,22 +19080,22 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="7" t="str">
-        <f t="shared" ref="K3:K16" si="1">IF(ISBLANK(A3),K4,K4&amp;",df."&amp; SUBSTITUTE(A3," ","_") &amp;"_pct[xx]")</f>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7" t="str">
+        <f t="shared" ref="L3:L16" si="1">IF(ISBLANK(A3),L4,L4&amp;",df."&amp; SUBSTITUTE(A3," ","_") &amp;"_pct[xx]")</f>
         <v>[df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx],df.practicioner_pct[xx],df.academic_pct[xx]</v>
       </c>
-      <c r="L3" s="7" t="str">
-        <f t="shared" ref="L3:L16" si="2">IF(ISBLANK(A3),L4,L4&amp;",'"&amp; A3 &amp;"'")</f>
+      <c r="M3" s="7" t="str">
+        <f t="shared" ref="M3:M16" si="2">IF(ISBLANK(A3),M4,M4&amp;",'"&amp; A3 &amp;"'")</f>
         <v>['ruleset 2','ruleset 1','spreadsheet','decision table','past','current','novice','senior','expert','practicioner','academic'</v>
       </c>
-      <c r="M3" s="7" t="str">
-        <f t="shared" ref="M3:M16" si="3">IF(ISBLANK(A3),M4,M4&amp;",df."&amp; SUBSTITUTE(A3," ","_") &amp;"[xx]")</f>
+      <c r="N3" s="7" t="str">
+        <f t="shared" ref="N3:N16" si="3">IF(ISBLANK(A3),N4,N4&amp;",df."&amp; SUBSTITUTE(A3," ","_") &amp;"[xx]")</f>
         <v>[df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx],df.practicioner[xx],df.academic[xx]</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>312</v>
       </c>
@@ -18762,28 +19121,31 @@
       <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="7" t="str">
+      <c r="I4" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="J4" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A4," ","_") &amp; "' : [" &amp; (F4*-1) &amp; "," &amp; (E4*-1) &amp; "," &amp;(D4*-1)&amp; "," &amp; G4 &amp; "," &amp; H4 &amp; "],"</f>
         <v>'academic' : [-2,-2,0,5,1],</v>
       </c>
-      <c r="J4" s="7" t="str">
+      <c r="K4" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A4," ","_")  &amp; "_pct' : [" &amp; ROUND(((F4/B4)*-1),2) &amp; "," &amp; ROUND(((E4/B4)*-1),2) &amp; "," &amp; ROUND(((D4/B4)*-1),2)  &amp; "," &amp; ROUND((G4/B4),2) &amp; "," &amp; ROUND((H4/B4),2) &amp; "],"</f>
         <v>'academic_pct' : [-0.2,-0.2,0,0.5,0.1],</v>
       </c>
-      <c r="K4" s="7" t="str">
+      <c r="L4" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx],df.practicioner_pct[xx],df.academic_pct[xx]</v>
       </c>
-      <c r="L4" s="7" t="str">
+      <c r="M4" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['ruleset 2','ruleset 1','spreadsheet','decision table','past','current','novice','senior','expert','practicioner','academic'</v>
       </c>
-      <c r="M4" s="7" t="str">
+      <c r="N4" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx],df.practicioner[xx],df.academic[xx]</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>313</v>
       </c>
@@ -18809,28 +19171,31 @@
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7" t="str">
+      <c r="I5" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="J5" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A5," ","_") &amp; "' : [" &amp; (F5*-1) &amp; "," &amp; (E5*-1) &amp; "," &amp;(D5*-1)&amp; "," &amp; G5 &amp; "," &amp; H5 &amp; "],"</f>
         <v>'practicioner' : [-1,-5,-4,10,0],</v>
       </c>
-      <c r="J5" s="7" t="str">
+      <c r="K5" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A5," ","_")  &amp; "_pct' : [" &amp; ROUND(((F5/B5)*-1),2) &amp; "," &amp; ROUND(((E5/B5)*-1),2) &amp; "," &amp; ROUND(((D5/B5)*-1),2)  &amp; "," &amp; ROUND((G5/B5),2) &amp; "," &amp; ROUND((H5/B5),2) &amp; "],"</f>
         <v>'practicioner_pct' : [-0.05,-0.25,-0.2,0.5,0],</v>
       </c>
-      <c r="K5" s="7" t="str">
+      <c r="L5" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx],df.practicioner_pct[xx]</v>
       </c>
-      <c r="L5" s="7" t="str">
+      <c r="M5" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['ruleset 2','ruleset 1','spreadsheet','decision table','past','current','novice','senior','expert','practicioner'</v>
       </c>
-      <c r="M5" s="7" t="str">
+      <c r="N5" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx],df.practicioner[xx]</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -18854,22 +19219,22 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="7" t="str">
+      <c r="K6" s="7"/>
+      <c r="L6" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx]</v>
       </c>
-      <c r="L6" s="7" t="str">
+      <c r="M6" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['ruleset 2','ruleset 1','spreadsheet','decision table','past','current','novice','senior','expert'</v>
       </c>
-      <c r="M6" s="7" t="str">
+      <c r="N6" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx]</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>317</v>
       </c>
@@ -18895,28 +19260,31 @@
       <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="I7" s="7" t="str">
-        <f t="shared" ref="I7" si="5">"'"&amp;SUBSTITUTE(A7," ","_") &amp; "' : [" &amp; (F7*-1) &amp; "," &amp; (E7*-1) &amp; "," &amp;(D7*-1)&amp; "," &amp; G7 &amp; "," &amp; H7 &amp; "],"</f>
+      <c r="I7" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f t="shared" ref="J7" si="5">"'"&amp;SUBSTITUTE(A7," ","_") &amp; "' : [" &amp; (F7*-1) &amp; "," &amp; (E7*-1) &amp; "," &amp;(D7*-1)&amp; "," &amp; G7 &amp; "," &amp; H7 &amp; "],"</f>
         <v>'expert' : [0,-3,-2,4,0],</v>
       </c>
-      <c r="J7" s="7" t="str">
+      <c r="K7" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A7," ","_")  &amp; "_pct' : [" &amp; ROUND(((F7/B7)*-1),2) &amp; "," &amp; ROUND(((E7/B7)*-1),2) &amp; "," &amp; ROUND(((D7/B7)*-1),2)  &amp; "," &amp; ROUND((G7/B7),2) &amp; "," &amp; ROUND((H7/B7),2) &amp; "],"</f>
         <v>'expert_pct' : [0,-0.33,-0.22,0.44,0],</v>
       </c>
-      <c r="K7" s="7" t="str">
+      <c r="L7" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx]</v>
       </c>
-      <c r="L7" s="7" t="str">
+      <c r="M7" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['ruleset 2','ruleset 1','spreadsheet','decision table','past','current','novice','senior','expert'</v>
       </c>
-      <c r="M7" s="7" t="str">
+      <c r="N7" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx]</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>318</v>
       </c>
@@ -18942,28 +19310,31 @@
       <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="I8" s="7" t="str">
+      <c r="I8" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="J8" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A8," ","_") &amp; "' : [" &amp; (F8*-1) &amp; "," &amp; (E8*-1) &amp; "," &amp;(D8*-1)&amp; "," &amp; G8 &amp; "," &amp; H8 &amp; "],"</f>
         <v>'senior' : [-2,-3,-2,9,0],</v>
       </c>
-      <c r="J8" s="7" t="str">
+      <c r="K8" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A8," ","_")  &amp; "_pct' : [" &amp; ROUND(((F8/B8)*-1),2) &amp; "," &amp; ROUND(((E8/B8)*-1),2) &amp; "," &amp; ROUND(((D8/B8)*-1),2)  &amp; "," &amp; ROUND((G8/B8),2) &amp; "," &amp; ROUND((H8/B8),2) &amp; "],"</f>
         <v>'senior_pct' : [-0.13,-0.19,-0.13,0.56,0],</v>
       </c>
-      <c r="K8" s="7" t="str">
+      <c r="L8" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx]</v>
       </c>
-      <c r="L8" s="7" t="str">
+      <c r="M8" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['ruleset 2','ruleset 1','spreadsheet','decision table','past','current','novice','senior'</v>
       </c>
-      <c r="M8" s="7" t="str">
+      <c r="N8" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx]</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>319</v>
       </c>
@@ -18989,28 +19360,28 @@
       <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="I9" s="7" t="str">
+      <c r="J9" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A9," ","_") &amp; "' : [" &amp; (F9*-1) &amp; "," &amp; (E9*-1) &amp; "," &amp;(D9*-1)&amp; "," &amp; G9 &amp; "," &amp; H9 &amp; "],"</f>
         <v>'novice' : [-1,-1,0,2,1],</v>
       </c>
-      <c r="J9" s="7" t="str">
+      <c r="K9" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A9," ","_")  &amp; "_pct' : [" &amp; ROUND(((F9/B9)*-1),2) &amp; "," &amp; ROUND(((E9/B9)*-1),2) &amp; "," &amp; ROUND(((D9/B9)*-1),2)  &amp; "," &amp; ROUND((G9/B9),2) &amp; "," &amp; ROUND((H9/B9),2) &amp; "],"</f>
         <v>'novice_pct' : [-0.2,-0.2,0,0.4,0.2],</v>
       </c>
-      <c r="K9" s="7" t="str">
+      <c r="L9" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx]</v>
       </c>
-      <c r="L9" s="7" t="str">
+      <c r="M9" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['ruleset 2','ruleset 1','spreadsheet','decision table','past','current','novice'</v>
       </c>
-      <c r="M9" s="7" t="str">
+      <c r="N9" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx],df.current[xx],df.novice[xx]</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -19034,22 +19405,22 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="7" t="str">
+      <c r="K10" s="7"/>
+      <c r="L10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx],df.current_pct[xx]</v>
       </c>
-      <c r="L10" s="7" t="str">
+      <c r="M10" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['ruleset 2','ruleset 1','spreadsheet','decision table','past','current'</v>
       </c>
-      <c r="M10" s="7" t="str">
+      <c r="N10" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx],df.current[xx]</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>320</v>
       </c>
@@ -19075,28 +19446,31 @@
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7" t="str">
-        <f t="shared" ref="I11" si="7">"'"&amp;SUBSTITUTE(A11," ","_") &amp; "' : [" &amp; (F11*-1) &amp; "," &amp; (E11*-1) &amp; "," &amp;(D11*-1)&amp; "," &amp; G11 &amp; "," &amp; H11 &amp; "],"</f>
+      <c r="I11" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f t="shared" ref="J11" si="7">"'"&amp;SUBSTITUTE(A11," ","_") &amp; "' : [" &amp; (F11*-1) &amp; "," &amp; (E11*-1) &amp; "," &amp;(D11*-1)&amp; "," &amp; G11 &amp; "," &amp; H11 &amp; "],"</f>
         <v>'current' : [-2,-3,-1,6,0],</v>
       </c>
-      <c r="J11" s="7" t="str">
+      <c r="K11" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A11," ","_")  &amp; "_pct' : [" &amp; ROUND(((F11/B11)*-1),2) &amp; "," &amp; ROUND(((E11/B11)*-1),2) &amp; "," &amp; ROUND(((D11/B11)*-1),2)  &amp; "," &amp; ROUND((G11/B11),2) &amp; "," &amp; ROUND((H11/B11),2) &amp; "],"</f>
         <v>'current_pct' : [-0.17,-0.25,-0.08,0.5,0],</v>
       </c>
-      <c r="K11" s="7" t="str">
+      <c r="L11" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx],df.current_pct[xx]</v>
       </c>
-      <c r="L11" s="7" t="str">
+      <c r="M11" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['ruleset 2','ruleset 1','spreadsheet','decision table','past','current'</v>
       </c>
-      <c r="M11" s="7" t="str">
+      <c r="N11" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx],df.current[xx]</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>321</v>
       </c>
@@ -19122,28 +19496,31 @@
       <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="I12" s="7" t="str">
+      <c r="I12" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="J12" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A12," ","_") &amp; "' : [" &amp; (F12*-1) &amp; "," &amp; (E12*-1) &amp; "," &amp;(D12*-1)&amp; "," &amp; G12 &amp; "," &amp; H12 &amp; "],"</f>
         <v>'past' : [-1,-4,-3,9,1],</v>
       </c>
-      <c r="J12" s="7" t="str">
+      <c r="K12" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A12," ","_")  &amp; "_pct' : [" &amp; ROUND(((F12/B12)*-1),2) &amp; "," &amp; ROUND(((E12/B12)*-1),2) &amp; "," &amp; ROUND(((D12/B12)*-1),2)  &amp; "," &amp; ROUND((G12/B12),2) &amp; "," &amp; ROUND((H12/B12),2) &amp; "],"</f>
         <v>'past_pct' : [-0.06,-0.22,-0.17,0.5,0.06],</v>
       </c>
-      <c r="K12" s="7" t="str">
+      <c r="L12" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx]</v>
       </c>
-      <c r="L12" s="7" t="str">
+      <c r="M12" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['ruleset 2','ruleset 1','spreadsheet','decision table','past'</v>
       </c>
-      <c r="M12" s="7" t="str">
+      <c r="N12" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx]</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -19167,22 +19544,22 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="7" t="str">
+      <c r="K13" s="7"/>
+      <c r="L13" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx]</v>
       </c>
-      <c r="L13" s="7" t="str">
+      <c r="M13" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['ruleset 2','ruleset 1','spreadsheet','decision table'</v>
       </c>
-      <c r="M13" s="7" t="str">
+      <c r="N13" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx]</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>326</v>
       </c>
@@ -19208,28 +19585,31 @@
       <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="I14" s="7" t="str">
-        <f t="shared" ref="I14" si="9">"'"&amp;SUBSTITUTE(A14," ","_") &amp; "' : [" &amp; (F14*-1) &amp; "," &amp; (E14*-1) &amp; "," &amp;(D14*-1)&amp; "," &amp; G14 &amp; "," &amp; H14 &amp; "],"</f>
+      <c r="I14" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" ref="J14" si="9">"'"&amp;SUBSTITUTE(A14," ","_") &amp; "' : [" &amp; (F14*-1) &amp; "," &amp; (E14*-1) &amp; "," &amp;(D14*-1)&amp; "," &amp; G14 &amp; "," &amp; H14 &amp; "],"</f>
         <v>'decision_table' : [-2,-6,-4,6,0],</v>
       </c>
-      <c r="J14" s="7" t="str">
+      <c r="K14" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A14," ","_")  &amp; "_pct' : [" &amp; ROUND(((F14/B14)*-1),2) &amp; "," &amp; ROUND(((E14/B14)*-1),2) &amp; "," &amp; ROUND(((D14/B14)*-1),2)  &amp; "," &amp; ROUND((G14/B14),2) &amp; "," &amp; ROUND((H14/B14),2) &amp; "],"</f>
         <v>'decision_table_pct' : [-0.11,-0.33,-0.22,0.33,0],</v>
       </c>
-      <c r="K14" s="7" t="str">
+      <c r="L14" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx]</v>
       </c>
-      <c r="L14" s="7" t="str">
+      <c r="M14" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['ruleset 2','ruleset 1','spreadsheet','decision table'</v>
       </c>
-      <c r="M14" s="7" t="str">
+      <c r="N14" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx]</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>327</v>
       </c>
@@ -19255,28 +19635,31 @@
       <c r="H15" s="7">
         <v>1</v>
       </c>
-      <c r="I15" s="7" t="str">
+      <c r="I15" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="J15" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A15," ","_") &amp; "' : [" &amp; (F15*-1) &amp; "," &amp; (E15*-1) &amp; "," &amp;(D15*-1)&amp; "," &amp; G15 &amp; "," &amp; H15 &amp; "],"</f>
         <v>'spreadsheet' : [-1,-1,0,9,1],</v>
       </c>
-      <c r="J15" s="7" t="str">
+      <c r="K15" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A15," ","_")  &amp; "_pct' : [" &amp; ROUND(((F15/B15)*-1),2) &amp; "," &amp; ROUND(((E15/B15)*-1),2) &amp; "," &amp; ROUND(((D15/B15)*-1),2)  &amp; "," &amp; ROUND((G15/B15),2) &amp; "," &amp; ROUND((H15/B15),2) &amp; "],"</f>
         <v>'spreadsheet_pct' : [-0.08,-0.08,0,0.75,0.08],</v>
       </c>
-      <c r="K15" s="7" t="str">
+      <c r="L15" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx]</v>
       </c>
-      <c r="L15" s="7" t="str">
+      <c r="M15" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['ruleset 2','ruleset 1','spreadsheet'</v>
       </c>
-      <c r="M15" s="7" t="str">
+      <c r="N15" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx]</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D16" s="7" t="b">
         <f>SUM(D14:D15)=D$2</f>
         <v>1</v>
@@ -19297,20 +19680,20 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="K16" s="7" t="str">
+      <c r="L16" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.ruleset_2_pct[xx],df.ruleset_1_pct[xx]</v>
       </c>
-      <c r="L16" s="7" t="str">
+      <c r="M16" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['ruleset 2','ruleset 1'</v>
       </c>
-      <c r="M16" s="7" t="str">
+      <c r="N16" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.ruleset_2[xx],df.ruleset_1[xx]</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>328</v>
       </c>
@@ -19336,28 +19719,31 @@
       <c r="H17" s="7">
         <v>1</v>
       </c>
-      <c r="I17" s="7" t="str">
-        <f t="shared" ref="I17" si="11">"'"&amp;SUBSTITUTE(A17," ","_") &amp; "' : [" &amp; (F17*-1) &amp; "," &amp; (E17*-1) &amp; "," &amp;(D17*-1)&amp; "," &amp; G17 &amp; "," &amp; H17 &amp; "],"</f>
+      <c r="I17" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="J17" s="7" t="str">
+        <f t="shared" ref="J17" si="11">"'"&amp;SUBSTITUTE(A17," ","_") &amp; "' : [" &amp; (F17*-1) &amp; "," &amp; (E17*-1) &amp; "," &amp;(D17*-1)&amp; "," &amp; G17 &amp; "," &amp; H17 &amp; "],"</f>
         <v>'ruleset_1' : [-1,-5,-4,7,1],</v>
       </c>
-      <c r="J17" s="7" t="str">
+      <c r="K17" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A17," ","_")  &amp; "_pct' : [" &amp; ROUND(((F17/B17)*-1),2) &amp; "," &amp; ROUND(((E17/B17)*-1),2) &amp; "," &amp; ROUND(((D17/B17)*-1),2)  &amp; "," &amp; ROUND((G17/B17),2) &amp; "," &amp; ROUND((H17/B17),2) &amp; "],"</f>
         <v>'ruleset_1_pct' : [-0.06,-0.28,-0.22,0.39,0.06],</v>
       </c>
-      <c r="K17" s="7" t="str">
-        <f>IF(ISBLANK(A17),K18,K18&amp;",df."&amp; SUBSTITUTE(A17," ","_") &amp;"_pct[xx]")</f>
+      <c r="L17" s="7" t="str">
+        <f>IF(ISBLANK(A17),L18,L18&amp;",df."&amp; SUBSTITUTE(A17," ","_") &amp;"_pct[xx]")</f>
         <v>[df.ruleset_2_pct[xx],df.ruleset_1_pct[xx]</v>
       </c>
-      <c r="L17" s="7" t="str">
-        <f t="shared" ref="L17" si="12">IF(ISBLANK(A17),L18,L18&amp;",'"&amp; A17 &amp;"'")</f>
+      <c r="M17" s="7" t="str">
+        <f t="shared" ref="M17" si="12">IF(ISBLANK(A17),M18,M18&amp;",'"&amp; A17 &amp;"'")</f>
         <v>['ruleset 2','ruleset 1'</v>
       </c>
-      <c r="M17" s="7" t="str">
-        <f>IF(ISBLANK(A17),M18,M18&amp;",df."&amp; SUBSTITUTE(A17," ","_") &amp;"[xx]")</f>
+      <c r="N17" s="7" t="str">
+        <f>IF(ISBLANK(A17),N18,N18&amp;",df."&amp; SUBSTITUTE(A17," ","_") &amp;"[xx]")</f>
         <v>[df.ruleset_2[xx],df.ruleset_1[xx]</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>329</v>
       </c>
@@ -19383,28 +19769,31 @@
       <c r="H18" s="7">
         <v>0</v>
       </c>
-      <c r="I18" s="7" t="str">
+      <c r="I18" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="J18" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A18," ","_") &amp; "' : [" &amp; (F18*-1) &amp; "," &amp; (E18*-1) &amp; "," &amp;(D18*-1)&amp; "," &amp; G18 &amp; "," &amp; H18 &amp; "],"</f>
         <v>'ruleset_2' : [-2,-2,0,8,0],</v>
       </c>
-      <c r="J18" s="7" t="str">
+      <c r="K18" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A18," ","_")  &amp; "_pct' : [" &amp; ROUND(((F18/B18)*-1),2) &amp; "," &amp; ROUND(((E18/B18)*-1),2) &amp; "," &amp; ROUND(((D18/B18)*-1),2)  &amp; "," &amp; ROUND((G18/B18),2) &amp; "," &amp; ROUND((H18/B18),2) &amp; "],"</f>
         <v>'ruleset_2_pct' : [-0.17,-0.17,0,0.67,0],</v>
       </c>
-      <c r="K18" s="7" t="str">
+      <c r="L18" s="7" t="str">
         <f>"[df."&amp; SUBSTITUTE(A18," ","_") &amp;"_pct[xx]"</f>
         <v>[df.ruleset_2_pct[xx]</v>
       </c>
-      <c r="L18" s="7" t="str">
+      <c r="M18" s="7" t="str">
         <f>"['"&amp; A18&amp;"'"</f>
         <v>['ruleset 2'</v>
       </c>
-      <c r="M18" s="7" t="str">
+      <c r="N18" s="7" t="str">
         <f>"[df."&amp; SUBSTITUTE(A18," ","_") &amp;"[xx]"</f>
         <v>[df.ruleset_2[xx]</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D19" s="7" t="b">
         <f>SUM(D17:D18)=D$2</f>
         <v>1</v>
@@ -19426,13 +19815,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="I20" s="7"/>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="I21" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19441,15 +19830,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1B907A-BDC5-43B2-8A49-E12C94F4DB80}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="9" max="9" width="31.6328125" style="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="7"/>
       <c r="B1" s="7" t="s">
         <v>315</v>
@@ -19472,10 +19864,11 @@
       <c r="H1" s="1">
         <v>5</v>
       </c>
-      <c r="I1" s="7"/>
+      <c r="I1" s="1"/>
       <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>311</v>
       </c>
@@ -19501,28 +19894,32 @@
       <c r="H2" s="7">
         <v>1</v>
       </c>
-      <c r="I2" s="7" t="str">
+      <c r="I2" s="7">
+        <f>(D2+E2)/(G2+H2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="J2" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A2," ","_") &amp; "' : [" &amp; (F2*-1) &amp; "," &amp; (E2*-1) &amp; "," &amp;(D2*-1)&amp; "," &amp; G2 &amp; "," &amp; H2 &amp; "],"</f>
         <v>'total' : [-9,-10,-2,7,1],</v>
       </c>
-      <c r="J2" s="7" t="str">
+      <c r="K2" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A2," ","_")  &amp; "_pct' : [" &amp; ROUND(((F2/B2)*-1),2) &amp; "," &amp; ROUND(((E2/B2)*-1),2) &amp; "," &amp; ROUND(((D2/B2)*-1),2)  &amp; "," &amp; ROUND((G2/B2),2) &amp; "," &amp; ROUND((H2/B2),2) &amp; "],"</f>
         <v>'total_pct' : [-0.31,-0.34,-0.07,0.24,0.03],</v>
       </c>
-      <c r="K2" s="7" t="str">
-        <f>IF(ISBLANK(A2),K3,K3&amp;",df."&amp; SUBSTITUTE(A2," ","_") &amp;"_pct[xx]]")</f>
+      <c r="L2" s="7" t="str">
+        <f>IF(ISBLANK(A2),L3,L3&amp;",df."&amp; SUBSTITUTE(A2," ","_") &amp;"_pct[xx]]")</f>
         <v>[df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx],df.practicioner_pct[xx],df.academic_pct[xx],df.total_pct[xx]]</v>
       </c>
-      <c r="L2" s="7" t="str">
-        <f>IF(ISBLANK(A2),L3,L3&amp;",'"&amp; A2 &amp;"']")</f>
+      <c r="M2" s="7" t="str">
+        <f>IF(ISBLANK(A2),M3,M3&amp;",'"&amp; A2 &amp;"']")</f>
         <v>['ruleset 2','ruleset 1','spreadsheet','decision table','past','current','novice','senior','expert','practicioner','academic','total']</v>
       </c>
-      <c r="M2" s="7" t="str">
-        <f>IF(ISBLANK(A2),M3,M3&amp;",df."&amp; SUBSTITUTE(A2," ","_") &amp;"[xx]]")</f>
+      <c r="N2" s="7" t="str">
+        <f>IF(ISBLANK(A2),N3,N3&amp;",df."&amp; SUBSTITUTE(A2," ","_") &amp;"[xx]]")</f>
         <v>[df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx],df.practicioner[xx],df.academic[xx],df.total[xx]]</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -19531,22 +19928,22 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="7" t="str">
-        <f t="shared" ref="K3:K16" si="1">IF(ISBLANK(A3),K4,K4&amp;",df."&amp; SUBSTITUTE(A3," ","_") &amp;"_pct[xx]")</f>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7" t="str">
+        <f t="shared" ref="L3:L16" si="1">IF(ISBLANK(A3),L4,L4&amp;",df."&amp; SUBSTITUTE(A3," ","_") &amp;"_pct[xx]")</f>
         <v>[df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx],df.practicioner_pct[xx],df.academic_pct[xx]</v>
       </c>
-      <c r="L3" s="7" t="str">
-        <f t="shared" ref="L3:L16" si="2">IF(ISBLANK(A3),L4,L4&amp;",'"&amp; A3 &amp;"'")</f>
+      <c r="M3" s="7" t="str">
+        <f t="shared" ref="M3:M16" si="2">IF(ISBLANK(A3),M4,M4&amp;",'"&amp; A3 &amp;"'")</f>
         <v>['ruleset 2','ruleset 1','spreadsheet','decision table','past','current','novice','senior','expert','practicioner','academic'</v>
       </c>
-      <c r="M3" s="7" t="str">
-        <f t="shared" ref="M3:M16" si="3">IF(ISBLANK(A3),M4,M4&amp;",df."&amp; SUBSTITUTE(A3," ","_") &amp;"[xx]")</f>
+      <c r="N3" s="7" t="str">
+        <f t="shared" ref="N3:N16" si="3">IF(ISBLANK(A3),N4,N4&amp;",df."&amp; SUBSTITUTE(A3," ","_") &amp;"[xx]")</f>
         <v>[df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx],df.practicioner[xx],df.academic[xx]</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>312</v>
       </c>
@@ -19572,28 +19969,31 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7" t="str">
+      <c r="I4" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="J4" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A4," ","_") &amp; "' : [" &amp; (F4*-1) &amp; "," &amp; (E4*-1) &amp; "," &amp;(D4*-1)&amp; "," &amp; G4 &amp; "," &amp; H4 &amp; "],"</f>
         <v>'academic' : [-4,-2,-1,3,0],</v>
       </c>
-      <c r="J4" s="7" t="str">
+      <c r="K4" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A4," ","_")  &amp; "_pct' : [" &amp; ROUND(((F4/B4)*-1),2) &amp; "," &amp; ROUND(((E4/B4)*-1),2) &amp; "," &amp; ROUND(((D4/B4)*-1),2)  &amp; "," &amp; ROUND((G4/B4),2) &amp; "," &amp; ROUND((H4/B4),2) &amp; "],"</f>
         <v>'academic_pct' : [-0.4,-0.2,-0.1,0.3,0],</v>
       </c>
-      <c r="K4" s="7" t="str">
+      <c r="L4" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx],df.practicioner_pct[xx],df.academic_pct[xx]</v>
       </c>
-      <c r="L4" s="7" t="str">
+      <c r="M4" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['ruleset 2','ruleset 1','spreadsheet','decision table','past','current','novice','senior','expert','practicioner','academic'</v>
       </c>
-      <c r="M4" s="7" t="str">
+      <c r="N4" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx],df.practicioner[xx],df.academic[xx]</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>313</v>
       </c>
@@ -19619,28 +20019,31 @@
       <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="I5" s="7" t="str">
+      <c r="I5" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="J5" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A5," ","_") &amp; "' : [" &amp; (F5*-1) &amp; "," &amp; (E5*-1) &amp; "," &amp;(D5*-1)&amp; "," &amp; G5 &amp; "," &amp; H5 &amp; "],"</f>
         <v>'practicioner' : [-5,-8,-1,4,1],</v>
       </c>
-      <c r="J5" s="7" t="str">
+      <c r="K5" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A5," ","_")  &amp; "_pct' : [" &amp; ROUND(((F5/B5)*-1),2) &amp; "," &amp; ROUND(((E5/B5)*-1),2) &amp; "," &amp; ROUND(((D5/B5)*-1),2)  &amp; "," &amp; ROUND((G5/B5),2) &amp; "," &amp; ROUND((H5/B5),2) &amp; "],"</f>
         <v>'practicioner_pct' : [-0.26,-0.42,-0.05,0.21,0.05],</v>
       </c>
-      <c r="K5" s="7" t="str">
+      <c r="L5" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx],df.practicioner_pct[xx]</v>
       </c>
-      <c r="L5" s="7" t="str">
+      <c r="M5" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['ruleset 2','ruleset 1','spreadsheet','decision table','past','current','novice','senior','expert','practicioner'</v>
       </c>
-      <c r="M5" s="7" t="str">
+      <c r="N5" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx],df.practicioner[xx]</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -19664,22 +20067,22 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="7" t="str">
+      <c r="K6" s="7"/>
+      <c r="L6" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx]</v>
       </c>
-      <c r="L6" s="7" t="str">
+      <c r="M6" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['ruleset 2','ruleset 1','spreadsheet','decision table','past','current','novice','senior','expert'</v>
       </c>
-      <c r="M6" s="7" t="str">
+      <c r="N6" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx]</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>317</v>
       </c>
@@ -19705,28 +20108,31 @@
       <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="I7" s="7" t="str">
-        <f t="shared" ref="I7" si="5">"'"&amp;SUBSTITUTE(A7," ","_") &amp; "' : [" &amp; (F7*-1) &amp; "," &amp; (E7*-1) &amp; "," &amp;(D7*-1)&amp; "," &amp; G7 &amp; "," &amp; H7 &amp; "],"</f>
+      <c r="I7" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f t="shared" ref="J7" si="5">"'"&amp;SUBSTITUTE(A7," ","_") &amp; "' : [" &amp; (F7*-1) &amp; "," &amp; (E7*-1) &amp; "," &amp;(D7*-1)&amp; "," &amp; G7 &amp; "," &amp; H7 &amp; "],"</f>
         <v>'expert' : [-3,-4,0,1,1],</v>
       </c>
-      <c r="J7" s="7" t="str">
+      <c r="K7" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A7," ","_")  &amp; "_pct' : [" &amp; ROUND(((F7/B7)*-1),2) &amp; "," &amp; ROUND(((E7/B7)*-1),2) &amp; "," &amp; ROUND(((D7/B7)*-1),2)  &amp; "," &amp; ROUND((G7/B7),2) &amp; "," &amp; ROUND((H7/B7),2) &amp; "],"</f>
         <v>'expert_pct' : [-0.33,-0.44,0,0.11,0.11],</v>
       </c>
-      <c r="K7" s="7" t="str">
+      <c r="L7" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx],df.expert_pct[xx]</v>
       </c>
-      <c r="L7" s="7" t="str">
+      <c r="M7" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['ruleset 2','ruleset 1','spreadsheet','decision table','past','current','novice','senior','expert'</v>
       </c>
-      <c r="M7" s="7" t="str">
+      <c r="N7" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx],df.expert[xx]</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>318</v>
       </c>
@@ -19752,28 +20158,31 @@
       <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="I8" s="7" t="str">
+      <c r="I8" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="J8" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A8," ","_") &amp; "' : [" &amp; (F8*-1) &amp; "," &amp; (E8*-1) &amp; "," &amp;(D8*-1)&amp; "," &amp; G8 &amp; "," &amp; H8 &amp; "],"</f>
         <v>'senior' : [-4,-4,-2,5,0],</v>
       </c>
-      <c r="J8" s="7" t="str">
+      <c r="K8" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A8," ","_")  &amp; "_pct' : [" &amp; ROUND(((F8/B8)*-1),2) &amp; "," &amp; ROUND(((E8/B8)*-1),2) &amp; "," &amp; ROUND(((D8/B8)*-1),2)  &amp; "," &amp; ROUND((G8/B8),2) &amp; "," &amp; ROUND((H8/B8),2) &amp; "],"</f>
         <v>'senior_pct' : [-0.27,-0.27,-0.13,0.33,0],</v>
       </c>
-      <c r="K8" s="7" t="str">
+      <c r="L8" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx],df.senior_pct[xx]</v>
       </c>
-      <c r="L8" s="7" t="str">
+      <c r="M8" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['ruleset 2','ruleset 1','spreadsheet','decision table','past','current','novice','senior'</v>
       </c>
-      <c r="M8" s="7" t="str">
+      <c r="N8" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx],df.current[xx],df.novice[xx],df.senior[xx]</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>319</v>
       </c>
@@ -19799,28 +20208,28 @@
       <c r="H9" s="7">
         <v>0</v>
       </c>
-      <c r="I9" s="7" t="str">
+      <c r="J9" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A9," ","_") &amp; "' : [" &amp; (F9*-1) &amp; "," &amp; (E9*-1) &amp; "," &amp;(D9*-1)&amp; "," &amp; G9 &amp; "," &amp; H9 &amp; "],"</f>
         <v>'novice' : [-2,-2,0,1,0],</v>
       </c>
-      <c r="J9" s="7" t="str">
+      <c r="K9" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A9," ","_")  &amp; "_pct' : [" &amp; ROUND(((F9/B9)*-1),2) &amp; "," &amp; ROUND(((E9/B9)*-1),2) &amp; "," &amp; ROUND(((D9/B9)*-1),2)  &amp; "," &amp; ROUND((G9/B9),2) &amp; "," &amp; ROUND((H9/B9),2) &amp; "],"</f>
         <v>'novice_pct' : [-0.4,-0.4,0,0.2,0],</v>
       </c>
-      <c r="K9" s="7" t="str">
+      <c r="L9" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx],df.current_pct[xx],df.novice_pct[xx]</v>
       </c>
-      <c r="L9" s="7" t="str">
+      <c r="M9" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['ruleset 2','ruleset 1','spreadsheet','decision table','past','current','novice'</v>
       </c>
-      <c r="M9" s="7" t="str">
+      <c r="N9" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx],df.current[xx],df.novice[xx]</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -19844,22 +20253,22 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="7" t="str">
+      <c r="K10" s="7"/>
+      <c r="L10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx],df.current_pct[xx]</v>
       </c>
-      <c r="L10" s="7" t="str">
+      <c r="M10" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['ruleset 2','ruleset 1','spreadsheet','decision table','past','current'</v>
       </c>
-      <c r="M10" s="7" t="str">
+      <c r="N10" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx],df.current[xx]</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>320</v>
       </c>
@@ -19885,28 +20294,31 @@
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7" t="str">
-        <f t="shared" ref="I11" si="7">"'"&amp;SUBSTITUTE(A11," ","_") &amp; "' : [" &amp; (F11*-1) &amp; "," &amp; (E11*-1) &amp; "," &amp;(D11*-1)&amp; "," &amp; G11 &amp; "," &amp; H11 &amp; "],"</f>
+      <c r="I11" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f t="shared" ref="J11" si="7">"'"&amp;SUBSTITUTE(A11," ","_") &amp; "' : [" &amp; (F11*-1) &amp; "," &amp; (E11*-1) &amp; "," &amp;(D11*-1)&amp; "," &amp; G11 &amp; "," &amp; H11 &amp; "],"</f>
         <v>'current' : [-2,-6,0,3,0],</v>
       </c>
-      <c r="J11" s="7" t="str">
+      <c r="K11" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A11," ","_")  &amp; "_pct' : [" &amp; ROUND(((F11/B11)*-1),2) &amp; "," &amp; ROUND(((E11/B11)*-1),2) &amp; "," &amp; ROUND(((D11/B11)*-1),2)  &amp; "," &amp; ROUND((G11/B11),2) &amp; "," &amp; ROUND((H11/B11),2) &amp; "],"</f>
         <v>'current_pct' : [-0.18,-0.55,0,0.27,0],</v>
       </c>
-      <c r="K11" s="7" t="str">
+      <c r="L11" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx],df.current_pct[xx]</v>
       </c>
-      <c r="L11" s="7" t="str">
+      <c r="M11" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['ruleset 2','ruleset 1','spreadsheet','decision table','past','current'</v>
       </c>
-      <c r="M11" s="7" t="str">
+      <c r="N11" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx],df.current[xx]</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>321</v>
       </c>
@@ -19932,28 +20344,31 @@
       <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="I12" s="7" t="str">
+      <c r="I12" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="J12" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A12," ","_") &amp; "' : [" &amp; (F12*-1) &amp; "," &amp; (E12*-1) &amp; "," &amp;(D12*-1)&amp; "," &amp; G12 &amp; "," &amp; H12 &amp; "],"</f>
         <v>'past' : [-7,-4,-2,4,1],</v>
       </c>
-      <c r="J12" s="7" t="str">
+      <c r="K12" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A12," ","_")  &amp; "_pct' : [" &amp; ROUND(((F12/B12)*-1),2) &amp; "," &amp; ROUND(((E12/B12)*-1),2) &amp; "," &amp; ROUND(((D12/B12)*-1),2)  &amp; "," &amp; ROUND((G12/B12),2) &amp; "," &amp; ROUND((H12/B12),2) &amp; "],"</f>
         <v>'past_pct' : [-0.39,-0.22,-0.11,0.22,0.06],</v>
       </c>
-      <c r="K12" s="7" t="str">
+      <c r="L12" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx],df.past_pct[xx]</v>
       </c>
-      <c r="L12" s="7" t="str">
+      <c r="M12" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['ruleset 2','ruleset 1','spreadsheet','decision table','past'</v>
       </c>
-      <c r="M12" s="7" t="str">
+      <c r="N12" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx],df.past[xx]</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -19977,22 +20392,22 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="7" t="str">
+      <c r="K13" s="7"/>
+      <c r="L13" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx]</v>
       </c>
-      <c r="L13" s="7" t="str">
+      <c r="M13" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['ruleset 2','ruleset 1','spreadsheet','decision table'</v>
       </c>
-      <c r="M13" s="7" t="str">
+      <c r="N13" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx]</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>326</v>
       </c>
@@ -20018,28 +20433,31 @@
       <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="I14" s="7" t="str">
-        <f t="shared" ref="I14" si="9">"'"&amp;SUBSTITUTE(A14," ","_") &amp; "' : [" &amp; (F14*-1) &amp; "," &amp; (E14*-1) &amp; "," &amp;(D14*-1)&amp; "," &amp; G14 &amp; "," &amp; H14 &amp; "],"</f>
+      <c r="I14" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" ref="J14" si="9">"'"&amp;SUBSTITUTE(A14," ","_") &amp; "' : [" &amp; (F14*-1) &amp; "," &amp; (E14*-1) &amp; "," &amp;(D14*-1)&amp; "," &amp; G14 &amp; "," &amp; H14 &amp; "],"</f>
         <v>'decision_table' : [-3,-7,-2,5,1],</v>
       </c>
-      <c r="J14" s="7" t="str">
+      <c r="K14" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A14," ","_")  &amp; "_pct' : [" &amp; ROUND(((F14/B14)*-1),2) &amp; "," &amp; ROUND(((E14/B14)*-1),2) &amp; "," &amp; ROUND(((D14/B14)*-1),2)  &amp; "," &amp; ROUND((G14/B14),2) &amp; "," &amp; ROUND((H14/B14),2) &amp; "],"</f>
         <v>'decision_table_pct' : [-0.17,-0.39,-0.11,0.28,0.06],</v>
       </c>
-      <c r="K14" s="7" t="str">
+      <c r="L14" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx],df.decision_table_pct[xx]</v>
       </c>
-      <c r="L14" s="7" t="str">
+      <c r="M14" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['ruleset 2','ruleset 1','spreadsheet','decision table'</v>
       </c>
-      <c r="M14" s="7" t="str">
+      <c r="N14" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx],df.decision_table[xx]</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>327</v>
       </c>
@@ -20065,28 +20483,31 @@
       <c r="H15" s="7">
         <v>0</v>
       </c>
-      <c r="I15" s="7" t="str">
+      <c r="I15" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="J15" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A15," ","_") &amp; "' : [" &amp; (F15*-1) &amp; "," &amp; (E15*-1) &amp; "," &amp;(D15*-1)&amp; "," &amp; G15 &amp; "," &amp; H15 &amp; "],"</f>
         <v>'spreadsheet' : [-6,-3,0,2,0],</v>
       </c>
-      <c r="J15" s="7" t="str">
+      <c r="K15" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A15," ","_")  &amp; "_pct' : [" &amp; ROUND(((F15/B15)*-1),2) &amp; "," &amp; ROUND(((E15/B15)*-1),2) &amp; "," &amp; ROUND(((D15/B15)*-1),2)  &amp; "," &amp; ROUND((G15/B15),2) &amp; "," &amp; ROUND((H15/B15),2) &amp; "],"</f>
         <v>'spreadsheet_pct' : [-0.55,-0.27,0,0.18,0],</v>
       </c>
-      <c r="K15" s="7" t="str">
+      <c r="L15" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.ruleset_2_pct[xx],df.ruleset_1_pct[xx],df.spreadsheet_pct[xx]</v>
       </c>
-      <c r="L15" s="7" t="str">
+      <c r="M15" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['ruleset 2','ruleset 1','spreadsheet'</v>
       </c>
-      <c r="M15" s="7" t="str">
+      <c r="N15" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.ruleset_2[xx],df.ruleset_1[xx],df.spreadsheet[xx]</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -20110,22 +20531,22 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="7" t="str">
+      <c r="K16" s="7"/>
+      <c r="L16" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[df.ruleset_2_pct[xx],df.ruleset_1_pct[xx]</v>
       </c>
-      <c r="L16" s="7" t="str">
+      <c r="M16" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['ruleset 2','ruleset 1'</v>
       </c>
-      <c r="M16" s="7" t="str">
+      <c r="N16" s="7" t="str">
         <f t="shared" si="3"/>
         <v>[df.ruleset_2[xx],df.ruleset_1[xx]</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>328</v>
       </c>
@@ -20151,28 +20572,31 @@
       <c r="H17" s="7">
         <v>1</v>
       </c>
-      <c r="I17" s="7" t="str">
-        <f t="shared" ref="I17" si="11">"'"&amp;SUBSTITUTE(A17," ","_") &amp; "' : [" &amp; (F17*-1) &amp; "," &amp; (E17*-1) &amp; "," &amp;(D17*-1)&amp; "," &amp; G17 &amp; "," &amp; H17 &amp; "],"</f>
+      <c r="I17" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="J17" s="7" t="str">
+        <f t="shared" ref="J17" si="11">"'"&amp;SUBSTITUTE(A17," ","_") &amp; "' : [" &amp; (F17*-1) &amp; "," &amp; (E17*-1) &amp; "," &amp;(D17*-1)&amp; "," &amp; G17 &amp; "," &amp; H17 &amp; "],"</f>
         <v>'ruleset_1' : [-2,-4,-1,3,1],</v>
       </c>
-      <c r="J17" s="7" t="str">
+      <c r="K17" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A17," ","_")  &amp; "_pct' : [" &amp; ROUND(((F17/B17)*-1),2) &amp; "," &amp; ROUND(((E17/B17)*-1),2) &amp; "," &amp; ROUND(((D17/B17)*-1),2)  &amp; "," &amp; ROUND((G17/B17),2) &amp; "," &amp; ROUND((H17/B17),2) &amp; "],"</f>
         <v>'ruleset_1_pct' : [-0.18,-0.36,-0.09,0.27,0.09],</v>
       </c>
-      <c r="K17" s="7" t="str">
-        <f>IF(ISBLANK(A17),K18,K18&amp;",df."&amp; SUBSTITUTE(A17," ","_") &amp;"_pct[xx]")</f>
+      <c r="L17" s="7" t="str">
+        <f>IF(ISBLANK(A17),L18,L18&amp;",df."&amp; SUBSTITUTE(A17," ","_") &amp;"_pct[xx]")</f>
         <v>[df.ruleset_2_pct[xx],df.ruleset_1_pct[xx]</v>
       </c>
-      <c r="L17" s="7" t="str">
-        <f t="shared" ref="L17" si="12">IF(ISBLANK(A17),L18,L18&amp;",'"&amp; A17 &amp;"'")</f>
+      <c r="M17" s="7" t="str">
+        <f t="shared" ref="M17" si="12">IF(ISBLANK(A17),M18,M18&amp;",'"&amp; A17 &amp;"'")</f>
         <v>['ruleset 2','ruleset 1'</v>
       </c>
-      <c r="M17" s="7" t="str">
-        <f>IF(ISBLANK(A17),M18,M18&amp;",df."&amp; SUBSTITUTE(A17," ","_") &amp;"[xx]")</f>
+      <c r="N17" s="7" t="str">
+        <f>IF(ISBLANK(A17),N18,N18&amp;",df."&amp; SUBSTITUTE(A17," ","_") &amp;"[xx]")</f>
         <v>[df.ruleset_2[xx],df.ruleset_1[xx]</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>329</v>
       </c>
@@ -20198,28 +20622,31 @@
       <c r="H18" s="7">
         <v>0</v>
       </c>
-      <c r="I18" s="7" t="str">
+      <c r="I18" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="J18" s="7" t="str">
         <f>"'"&amp;SUBSTITUTE(A18," ","_") &amp; "' : [" &amp; (F18*-1) &amp; "," &amp; (E18*-1) &amp; "," &amp;(D18*-1)&amp; "," &amp; G18 &amp; "," &amp; H18 &amp; "],"</f>
         <v>'ruleset_2' : [-7,-6,-1,4,0],</v>
       </c>
-      <c r="J18" s="7" t="str">
+      <c r="K18" s="7" t="str">
         <f>"'" &amp; SUBSTITUTE(A18," ","_")  &amp; "_pct' : [" &amp; ROUND(((F18/B18)*-1),2) &amp; "," &amp; ROUND(((E18/B18)*-1),2) &amp; "," &amp; ROUND(((D18/B18)*-1),2)  &amp; "," &amp; ROUND((G18/B18),2) &amp; "," &amp; ROUND((H18/B18),2) &amp; "],"</f>
         <v>'ruleset_2_pct' : [-0.39,-0.33,-0.06,0.22,0],</v>
       </c>
-      <c r="K18" s="7" t="str">
+      <c r="L18" s="7" t="str">
         <f>"[df."&amp; SUBSTITUTE(A18," ","_") &amp;"_pct[xx]"</f>
         <v>[df.ruleset_2_pct[xx]</v>
       </c>
-      <c r="L18" s="7" t="str">
+      <c r="M18" s="7" t="str">
         <f>"['"&amp; A18&amp;"'"</f>
         <v>['ruleset 2'</v>
       </c>
-      <c r="M18" s="7" t="str">
+      <c r="N18" s="7" t="str">
         <f>"[df."&amp; SUBSTITUTE(A18," ","_") &amp;"[xx]"</f>
         <v>[df.ruleset_2[xx]</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -20243,16 +20670,16 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="I20" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="I21" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
